--- a/Feature2_file.xlsx
+++ b/Feature2_file.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>how could ai foresee inside brain callbot callbots approach trading data first intuition second</t>
+          <t>wat waiting zcx going steroids coming days get never coming months kata btc eth</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -461,14 +461,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bitcoin breaks k first time this bullish sign cryptocurrency market could lead gains coming weeks months</t>
+          <t>aave confirmed breakout retest process and almost running profits</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -476,14 +476,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>total market cap testing long term resistance line weekly chart i wanna know think get rejected break</t>
+          <t>meme coins bring hype excitement crypto world stablecoins offer stability utility practical transactions but remember great volatility comes great risks choose wisely</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -491,14 +491,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>breaking breaks less away time high big news pepe</t>
+          <t>xrpbtc pair almost support xrp got close launch its dropping off green daily drop pop bottom put soon we within days launch super close a weeks</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -506,14 +506,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>amazing news the future cryptocurrency looking brighter ever bitcoins potential revolutionize financial world</t>
+          <t>bitcoin rise breaking first time months this bullish sign cryptocurrency market could lead gains coming weeks months</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -521,14 +521,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>exciting news world carbify verge hitting mark keep eye promising project climbs new heights</t>
+          <t>whoa thats serious cash flow i wonder impact binances future decisions overall crypto landscape</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>thats great news ferrari embracing cryptocurrency big step forward cant wait luxury brands follow suit</t>
+          <t>exciting times world the digital revolution continues reshape finance technology beyond stay informed ride waves financial freedom</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -551,14 +551,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>memecoin keeps surprising surged over today find massive token burn anticipation blackrocks btc etf approval contributed impressive rally check full story</t>
+          <t>mornings always better coffe happy new week crypto fame lets grind way onto wealthy place week</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -566,14 +566,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>matrixport reaffirms yearned target k bitcoin this bold prediction sets stage exciting future enthusiasts read</t>
+          <t>grt update grt confirmed breakout retesting process case successful retest see major pump</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -581,14 +581,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>discover power join revolution crossborder payments crypto liquidity dont miss opportunity comment hold xrp</t>
+          <t>kerala high court delivers gamechanging directive indian crypto community protecting bank account holders unjust freezes due cybercrime</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>i little early but want bears hold tweet cry in honestly chances bitcoin ever going may never go</t>
+          <t>the ruling urges banks not freeze accounts based police requests but hold disputed funds upi transactions a win suffering arbitrary freezes</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>kerala high court delivers gamechanging directive indian crypto community protecting bank account holders unjust freezes due cybercrime</t>
+          <t>a broader issue emerges challenges handling cryptocurrencies law enforcement a crucial step indian banking crypto</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>the ruling urges banks not freeze accounts based police requests but hold disputed funds upi transactions a win suffering arbitrary freezes</t>
+          <t>kudos isanctuary incredible work recovering stolen funds paving way future cases this development significant step forward crypto security justice</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>booom tp hit pips done secure your profits hold with be okay</t>
+          <t>a month ago i uploaded small pack components finances crypto trading people left like comment get pack private message want action leave something get uikit for free</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -656,14 +656,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>realworld benefits when hold mlxg gain access tangible rewards this includes discounts commerce platform partner platforms ensuring loyalty us translates realworld savings</t>
+          <t>back ath x happen much faster people think</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -671,14 +671,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>enthusiasts if following signals congratulations polyx powr others i mentioned last night pumped massively we heading guys trade carefully guys</t>
+          <t>hello everyone glad see volatility back lets get back printing together</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>do accumulate i love green candles dhb volume increased market cap lower million already listed i accumulate hub</t>
+          <t>bitcoin soaring k per coin oh happy day</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>may day bright green candle lush forest crypto bull run have day full bullish trends crypto success</t>
+          <t>those didnt believe rio regret soon not buying next rio m you bridge rio eth bnb using ching app nfa dyor</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -716,14 +716,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>notice sudden etc fud yesterdays et pump this market predictable the bears saw much green candle unleash fud damage control</t>
+          <t>x still flying</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -731,14 +731,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>as promised picks each one backed solid tech promising future remember research diversify portfolio heres successful investments bright crypto journey ahead dca over next months</t>
+          <t>its crypto fearful october then turn greedy october gotta love crypto if cant handle im dont deserve im marilyn monero</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hourglass incubator basically launch pad twist you stake wait order receive tokens new crypto startup launch partners and us citizens participate vc fund layer btc eth bnb xrp</t>
+          <t>what need know upcoming hyme beta version open everyone explore incredible crypto projects running time weeks press button excited</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -761,14 +761,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>marinade offers solid annual yields native staking liquid staking a big move defi space</t>
+          <t>i little early but want bears hold tweet cry in honestly chances bitcoin ever going may never go</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>marinade remains largest defi protocol solana locking million value its significant part solana ecosystem</t>
+          <t>its imagine patience keep holding</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -791,14 +791,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mornings always better coffe happy new week crypto fame lets grind way onto wealthy place week</t>
+          <t>exciting news world carbify verge hitting mark keep eye promising project climbs new heights</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -806,14 +806,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>we backkkkk dont miss ship</t>
+          <t>inj soars new heights broke ascending triangle we continues deliver astonishing results remarkable profit so far</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>yesterdays seminar group spoon i mentioned watching btc_f ttm squeeze indicator today broke soared ke cryptocurrency market vibes strong</t>
+          <t>coming perfect score remarkable lets put love watch list year amazing</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -836,14 +836,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>broke day resistance the bulls back</t>
+          <t>crypto enthusiasts united gearing revolutionize hr blockchain era join us genesis exciting crypto project</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -851,14 +851,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hi guys fevo flappy bird evolution broke ascending triangle surged today</t>
+          <t>breaking news soars unbelievable year crypto enthusiasts</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -866,14 +866,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>inj soars new heights broke ascending triangle we continues deliver astonishing results remarkable profit so far</t>
+          <t>xrp finally getting interesting weve touched supply zone presents significant resistance weve stuck trading range over days a breakout supply zone would lead strong upward move</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -881,14 +881,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>breaking news soars unbelievable year crypto enthusiasts</t>
+          <t>breaking news bitcoin hits crypto markets continue make headlines bitcoins value surges</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>breaking news bitcoin hits crypto markets continue make headlines bitcoins value surges</t>
+          <t>best project ever i happy participating project</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -911,14 +911,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>michael saylor usd profit investment strategy</t>
+          <t>hourglass incubator basically launch pad twist you stake wait order receive tokens new crypto startup launch partners and us citizens participate vc fund layer btc eth bnb xrp</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>whoa thats serious cash flow i wonder impact binances future decisions overall crypto landscape</t>
+          <t>dont worry etc fam normal dump whales scoop back just line soon</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -941,14 +941,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>meme coins bring hype excitement crypto world stablecoins offer stability utility practical transactions but remember great volatility comes great risks choose wisely</t>
+          <t>booom tp hit pips done secure your profits hold with be okay</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>todays popular cryptocurrency pepe impressive increase value join memeseason hype trade pepe lbank</t>
+          <t>the important image save pc phone make wallpaper revise this golden crown crypto space shows important factor consider liquidity movements cycle</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -971,14 +971,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>one pump entire network back people need understand not hype were long term real people survived bear market way got we fuc deserve it hard fuc stand every day bear market</t>
+          <t>with surging k week goodbye bear market lets examine crucial indicators determine bear market waving goodbye plotting next move</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -986,14 +986,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>impressive see dominance resume beyond level unheard since april its fascinating tides crypto market constantly shift this makes captivating moment observe analyze</t>
+          <t>i cant believe much popularity playtoearn games grown past years</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>exciting times world the digital revolution continues reshape finance technology beyond stay informed ride waves financial freedom</t>
+          <t>neuralink oct we going every second now time buy</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>x still flying</t>
+          <t>marinade offers solid annual yields native staking liquid staking a big move defi space</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1031,14 +1031,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pepe cryptocurrency movement its commitment exclusivity innovation sustainable growth makes strong contender throne crypto world</t>
+          <t>marinade remains largest defi protocol solana locking million value its significant part solana ecosystem</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>speeding moon rocket always hopping</t>
+          <t>only up moon programmed</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1061,14 +1061,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>hot profits second limit order absolutely killed</t>
+          <t>bitcoin skyrockets dominates crypto market analysts optimism surges sols incredible weekly surge total market cap soars hitting midaugust highs whats take impressive gains</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>another update request review check green ratings everywhere we no transfer tax but green check right safe token course</t>
+          <t>thats green favorite bull market</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>this super cool</t>
+          <t>were thrilled announce giving away were thrilled announce giving away how enter follow like share tweet share proof penchant group retweet tweet hashtag sol dot icp</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1121,14 +1121,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>being developer plays important role entire ecosystem without people like example wont others mm exchanges no native tokens even marketing companies financial institution</t>
+          <t>kas big move happen soon entire market see greatest green candle ever next days</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1136,14 +1136,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ive researching crypto projects stands their vision blending hr blockchain compelling its prelaunch journey im eager follow</t>
+          <t>we backkkkk dont miss ship</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1151,14 +1151,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>blockfi makes major comeback overcoming bankruptcy cryptocurrency platform allows users access wallet funds have tried yet lets discuss</t>
+          <t>long positions trigger takeprofit level wait see today try buy today closing price higher op doge</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1166,14 +1166,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>grt update grt confirmed breakout retesting process case successful retest see major pump</t>
+          <t>yesterdays seminar group spoon i mentioned watching btc_f ttm squeeze indicator today broke soared ke cryptocurrency market vibes strong</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1181,14 +1181,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>scrt confirmed breakout falling wedge weekly time frame retesting still process case successful retest see major pump towards</t>
+          <t>wallet month old vid upload</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1196,14 +1196,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t xml:space="preserve"> surprise</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>aave confirmed breakout retest process and almost running profits</t>
+          <t>how could ai foresee inside brain callbot callbots approach trading data first intuition second</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1211,14 +1211,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>a broader issue emerges challenges handling cryptocurrencies law enforcement a crucial step indian banking crypto</t>
+          <t>bitcoin breaks k first time this bullish sign cryptocurrency market could lead gains coming weeks months</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>traditional saving crypto earning with givearn watch savings grow way never imagined step future smart saving time earn crypto way</t>
+          <t>bitcoin funny and stable it ran sideways basically months now we pop up day i love bitcoin</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>big news california the state proposing bill limit withdrawals crypto atms day cap fees a step towards combating fraud crypto world lets see pans</t>
+          <t>its funny excited i get crypto goes tiny bit dropping</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>kudos isanctuary incredible work recovering stolen funds paving way future cases this development significant step forward crypto security justice</t>
+          <t>traditional saving crypto earning with givearn watch savings grow way never imagined step future smart saving time earn crypto way</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>its funny excited i get crypto goes tiny bit dropping</t>
+          <t>patience key world dont rush fear missing take time research remember always opportunities</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1286,14 +1286,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bitcoin soaring k per coin oh happy day</t>
+          <t>pepe cryptocurrency movement its commitment exclusivity innovation sustainable growth makes strong contender throne crypto world</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>best project ever i happy participating project</t>
+          <t>enthusiasts if following signals congratulations polyx powr others i mentioned last night pumped massively we heading guys trade carefully guys</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>easy tp hit plan since may wait asses</t>
+          <t>broke day resistance the bulls back</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1331,14 +1331,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>long positions trigger takeprofit level wait see today try buy today closing price higher op doge</t>
+          <t>being developer plays important role entire ecosystem without people like example wont others mm exchanges no native tokens even marketing companies financial institution</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1346,14 +1346,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>kindly take note the world cryptocurrency renowned significant volatility give preference intelligent risk management strategies entering crypto market</t>
+          <t>just found old screenshot i profit cant believe doubled since</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>neuralink oct we going every second now time buy</t>
+          <t>exciting news the alliance ton foundation mantle network gamechanger evmcompatible layer blockchain solutions looking forward seeing partnership push innovation crypto space</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>only up moon programmed</t>
+          <t>buy burn amount accumulated within hours m awesome start protocol mint claim stake claim eth repeat</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>its crypto fearful october then turn greedy october gotta love crypto if cant handle im dont deserve im marilyn monero</t>
+          <t>new asia furniture company support pi highend furniture complete waiting pi pay</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1406,14 +1406,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>hello everyone glad see volatility back lets get back printing together</t>
+          <t>making big gains crypto isnt biggest problem the problem paying huge taxes gains but heres solution spend without creating taxable event a thread</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1421,14 +1421,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>diving data arkw sold shares price rise interestingly isnt first time weve seen pattern trades they also sold took off coin</t>
+          <t>embrace bad tokens rising value potential make impact</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>thats green favorite bull market</t>
+          <t>thats great news ferrari embracing cryptocurrency big step forward cant wait luxury brands follow suit</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1451,14 +1451,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>get eyes dont left avoid stories inj mooning soon</t>
+          <t>realworld benefits when hold mlxg gain access tangible rewards this includes discounts commerce platform partner platforms ensuring loyalty us translates realworld savings</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>its imagine patience keep holding</t>
+          <t>may day bright green candle lush forest crypto bull run have day full bullish trends crypto success</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1481,14 +1481,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>patience key world dont rush fear missing take time research remember always opportunities</t>
+          <t>get eyes dont left avoid stories inj mooning soon</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>wat waiting zcx going steroids coming days get never coming months kata btc eth</t>
+          <t>get eyes dont left avoid stories inj mooning soon</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>btc went days this preetf the next months wild etc eth sol bob floki try atlas naka oil us via lex mix</t>
+          <t>blockfi makes major comeback overcoming bankruptcy cryptocurrency platform allows users access wallet funds have tried yet lets discuss</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1526,14 +1526,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>as promised picks each one backed solid tech promising future remember research diversify portfolio heres successful investments bright crypto journey ahead dca over next months</t>
+          <t>hot profits second limit order absolutely killed</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1541,14 +1541,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>bitcoin rise breaking first time months this bullish sign cryptocurrency market could lead gains coming weeks months</t>
+          <t>hi guys fevo flappy bird evolution broke ascending triangle surged today</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1556,14 +1556,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>bitcoin funny and stable it ran sideways basically months now we pop up day i love bitcoin</t>
+          <t>btc went days this preetf the next months wild etc eth sol bob floki try atlas naka oil us via lex mix</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1571,14 +1571,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>xrpbtc pair almost support xrp got close launch its dropping off green daily drop pop bottom put soon we within days launch super close a weeks</t>
+          <t>ape descending channel breakout daily timeframe chart looks promising bullish rally short terms</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>wow over indian police officers caught massive m crypto scam the ponzistyle scheme promised huge returns investments fake cryptocurrencies korvio coin dgt coin</t>
+          <t>qnt over san one investors pulled off next payments wtk m market cap let sink</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1601,14 +1601,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>wow thats impressive its great see significant crypto transactions happening potential growth industry</t>
+          <t>i cant believe much adoption cryptocurrency growing</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>the next hours interesting if xrpbtc pair gonna stay strong stay strong around here it shouldnt go much lower xrp btc not financial advice</t>
+          <t>scrt confirmed breakout falling wedge weekly time frame retesting still process case successful retest see major pump towards</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>xrp finally getting interesting weve touched supply zone presents significant resistance weve stuck trading range over days a breakout supply zone would lead strong upward move</t>
+          <t>discover power join revolution crossborder payments crypto liquidity dont miss opportunity comment hold xrp</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>crypto enthusiasts united gearing revolutionize hr blockchain era join us genesis exciting crypto project</t>
+          <t>as promised picks each one backed solid tech promising future remember research diversify portfolio heres successful investments bright crypto journey ahead dca over next months</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1661,14 +1661,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>bitcoin skyrockets dominates crypto market analysts optimism surges sols incredible weekly surge total market cap soars hitting midaugust highs whats take impressive gains</t>
+          <t>as promised picks each one backed solid tech promising future remember research diversify portfolio heres successful investments bright crypto journey ahead dca over next months</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>the geishas shibariumwaiting</t>
+          <t>michael saylor usd profit investment strategy</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1691,14 +1691,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>exciting news the alliance ton foundation mantle network gamechanger evmcompatible layer blockchain solutions looking forward seeing partnership push innovation crypto space</t>
+          <t>kindly take note the world cryptocurrency renowned significant volatility give preference intelligent risk management strategies entering crypto market</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>what does whale mean a whale individual entity holding significant amount specific also apply holding large amounts multiple</t>
+          <t>notice sudden etc fud yesterdays et pump this market predictable the bears saw much green candle unleash fud damage control</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1721,14 +1721,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>coming perfect score remarkable lets put love watch list year amazing</t>
+          <t>speeding moon rocket always hopping</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>just found old screenshot i profit cant believe doubled since</t>
+          <t>all in one wallet airdrop audit task usdt random participants referral usdt top referrers airdrop link information</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1751,14 +1751,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>get eyes dont left avoid stories inj mooning soon</t>
+          <t>a pump massive real attracts real bros soon discover real fall sky real waiting dont left behind</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dont worry etc fam normal dump whales scoop back just line soon</t>
+          <t>impressive see dominance resume beyond level unheard since april its fascinating tides crypto market constantly shift this makes captivating moment observe analyze</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1781,14 +1781,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>participate usdt floxypay zealy giveaway contest reward pool usdt top usdt top usdt duration oct nov sam bankman meme</t>
+          <t>vra ready mark words i reshape later results</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>vra ready mark words i reshape later results</t>
+          <t>easy tp hit plan since may wait asses</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1811,14 +1811,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>tao chart looking know going many people waiting sub they miss top performing ai project lower entry</t>
+          <t>wow thats impressive its great see significant crypto transactions happening potential growth industry</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1826,14 +1826,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>what need know upcoming hyme beta version open everyone explore incredible crypto projects running time weeks press button excited</t>
+          <t>the next hours interesting if xrpbtc pair gonna stay strong stay strong around here it shouldnt go much lower xrp btc not financial advice</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1848,7 +1848,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>apple getting its matter time you heard first</t>
+          <t>amazing news the future cryptocurrency looking brighter ever bitcoins potential revolutionize financial world</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1856,14 +1856,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>wallet month old vid upload</t>
+          <t>diving data arkw sold shares price rise interestingly isnt first time weve seen pattern trades they also sold took off coin</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1871,14 +1871,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>those didnt believe rio regret soon not buying next rio m you bridge rio eth bnb using ching app nfa dyor</t>
+          <t>ive researching crypto projects stands their vision blending hr blockchain compelling its prelaunch journey im eager follow</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1893,7 +1893,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>breaking taiwan shakes up the world taiwan introduced huge bill could redefine crypto industry everyone crypto needs know now a thread</t>
+          <t>tao chart looking know going many people waiting sub they miss top performing ai project lower entry</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>making big gains crypto isnt biggest problem the problem paying huge taxes gains but heres solution spend without creating taxable event a thread</t>
+          <t>breaking taiwan shakes up the world taiwan introduced huge bill could redefine crypto industry everyone crypto needs know now a thread</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1916,14 +1916,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t xml:space="preserve"> surprise</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>were thrilled announce giving away were thrilled announce giving away how enter follow like share tweet share proof penchant group retweet tweet hashtag sol dot icp</t>
+          <t>apple getting its matter time you heard first</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1938,7 +1938,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ape descending channel breakout daily timeframe chart looks promising bullish rally short terms</t>
+          <t>the ecosystem dominating crypto lunc time send</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1953,7 +1953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>all in one wallet airdrop audit task usdt random participants referral usdt top referrers airdrop link information</t>
+          <t>breaking breaks less away time high big news pepe</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>a month ago i uploaded small pack components finances crypto trading people left like comment get pack private message want action leave something get uikit for free</t>
+          <t>big news california the state proposing bill limit withdrawals crypto atms day cap fees a step towards combating fraud crypto world lets see pans</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>new asia furniture company support pi highend furniture complete waiting pi pay</t>
+          <t>matrixport reaffirms yearned target k bitcoin this bold prediction sets stage exciting future enthusiasts read</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1991,14 +1991,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>the important image save pc phone make wallpaper revise this golden crown crypto space shows important factor consider liquidity movements cycle</t>
+          <t>one pump entire network back people need understand not hype were long term real people survived bear market way got we fuc deserve it hard fuc stand every day bear market</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2006,14 +2006,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>pleased launch rules follow rt tweet pinned tweet tag friends h</t>
+          <t>todays popular cryptocurrency pepe impressive increase value join memeseason hype trade pepe lbank</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2021,14 +2021,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>would buy crypto friend suggested</t>
+          <t>this super cool</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>breaking news improved payment system feature if login payment not pi account pi wallet restricted cannot trade</t>
+          <t>wow over indian police officers caught massive m crypto scam the ponzistyle scheme promised huge returns investments fake cryptocurrencies korvio coin dgt coin</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> surprise</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>amazing chart ubxs marketplace coming soon</t>
+          <t>what does whale mean a whale individual entity holding significant amount specific also apply holding large amounts multiple</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2073,7 +2073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>altcoins dominance altcoins buy zone</t>
+          <t>do accumulate i love green candles dhb volume increased market cap lower million already listed i accumulate hub</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2081,14 +2081,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>link looks like next weeks</t>
+          <t>the geishas shibariumwaiting</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2103,7 +2103,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>grt has exited downtrend price support zone grt follow fet ai trend tp stl ready pump grt btc eth</t>
+          <t>another update request review check green ratings everywhere we no transfer tax but green check right safe token course</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2111,14 +2111,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>usd hours follow retweet like</t>
+          <t>total market cap testing long term resistance line weekly chart i wanna know think get rejected break</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2126,14 +2126,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>people be like oh no xrp buy back wont happen meanwhile ripple ceo sitting with polysign ceo</t>
+          <t>monthly i believe dgb</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2148,7 +2148,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>the ecosystem dominating crypto lunc time send</t>
+          <t>guys new resale link whitest mark alarms start hours im counting fox inu raise everyones wealth</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2163,7 +2163,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>most not ready when wan hits</t>
+          <t>drop love brad well</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2171,14 +2171,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>the ultimate strategy buy stake burn thrive with invest unlock sustainable wealth favorite tokens</t>
+          <t>all staking baking gonna get customs sorted aria first priority nfa dyor building stay going pick floor off goes way drillclub</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2193,7 +2193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>undervalued long its time gets recognition deserves</t>
+          <t>breaking news</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>gm i bought super nfts drop your nft i bought wonderful artistic nfts i support check nft collection available follovretweet</t>
+          <t>which project will pump soon vra spx ret dorkl</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2216,14 +2216,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>decentralized ai future innovation ready part join badideaai start making difference today bad shib</t>
+          <t>top project crypto project sitting mio mcap people realize gem paw top gainer next two years inevitable rebrand around corner</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2231,14 +2231,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>theres lot filled orders pre market trading i think everyone aware newest product bibi rep dmtr gomt smrtr choke rekt rpg raca igu lai prx gas</t>
+          <t>million users across countries chosen klever wallet unparalleled blend cuttingedge tech userfriendly interface</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2246,14 +2246,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>hard cap soft cap hit right target hard soft caps fundraising were break</t>
+          <t>crypto call its sama dot parachain mcap m ceo adam from ewt community really active chart going wild games built staking active week dont cry later buy mexc uniswap</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2268,7 +2268,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>exciting news univault teaming thrilling community giveaway stay tuned quest details event date get ready unforgettable experience</t>
+          <t>amazing car even better number plate kas perfect kaspa hodler</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2276,14 +2276,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>floki token take over space arms</t>
+          <t>its throwback what first gainz</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2291,14 +2291,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>blow gearing another explosive move upwards ill see</t>
+          <t>creative process exclusive art im tomorrow another painting stream finish hope like a great timelapse coming</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>embrace bad tokens rising value potential make impact</t>
+          <t>mint details revealed total supply pandas minting price og original gangsters free wl whitelist inj public inj get ready mint unique panda</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2321,14 +2321,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>kas big move happen soon entire market see greatest green candle ever next days</t>
+          <t>its no secret vast majority flourished second half october particularly large mid cap assets while assessing portfolio mindful assets may radar compared averages eth ada xlm</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2343,7 +2343,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>qnt over san one investors pulled off next payments wtk m market cap let sink</t>
+          <t>trillioner cryptocurrency project versatile platform thats shaping future digital interactions</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2358,7 +2358,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>a pump massive real attracts real bros soon discover real fall sky real waiting dont left behind</t>
+          <t>holders distribution last airdrop underway remember add gchain wallet view coins stay tuned updates next airdrop soon</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2373,7 +2373,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>back ath x happen much faster people think</t>
+          <t>ok one bear market meal lobster comes table fair id still eat bull i get cravings bad boys sometimes nil</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2388,7 +2388,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>buy burn amount accumulated within hours m awesome start protocol mint claim stake claim eth repeat</t>
+          <t>ace would ace big partners ace website</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2403,7 +2403,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>with surging k week goodbye bear market lets examine crucial indicators determine bear market waving goodbye plotting next move</t>
+          <t>the future digital asset management get ready experience power vip ultimate platform eth bsc investments</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2411,14 +2411,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>embrace adventure soar cosmic tides this isnt crypto trend journey moon together well not rise but shine brighter ever keep believing keep trending stay</t>
+          <t>damn try went months since august</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2426,14 +2426,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>the story whether gets approval not undeniably become immutable epicenter be part future love smile sec chair gary gensler</t>
+          <t>i wrote article largest dex it unique advantagesyncswap smart router more</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>this is the best time to buy</t>
+          <t>rao cash new bitcoin killer earn x become millionaire dont miss last chance get rich rao big whales coming ca xaebacedfebaabb buy rao cash</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2456,14 +2456,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>completely become peoples daily routine means earning the way people adopting pi no one stop becoming local currency whole world</t>
+          <t>my favorite memories last bullion actually not related it influential streamer joshs finance while subs shit live streams would return thousands real common investors one place one time little chatting given time sadly cannot find videos today back i known thor ruthless tough head moderator tolerance policy while i ruthless banned anyone even throwing eggplant emoji it style channel fun upbeatruthless josh would let everyone one depths banned swoop rebar the next crypto bullion produce similar fun exciting times new type investing i wish not around last time get ready time lives i mine get ready</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2478,7 +2478,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>many blockchains one ceo pulls strings motherland over ceos spread across whole world independently vote future upgrades true decentralization not simple point yet tezos gets done</t>
+          <t>picked today offer finally got acceptedparallel alpha one edition very rare undervalued opinion</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2486,14 +2486,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>i like wake early saturday i take dip pool start day excited possibilities arise i wish great saturday leave i know support i follow back</t>
+          <t>get ready team the first game week around corner</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2508,7 +2508,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>hit new record price risen twomonth high whilst shib total addresses ever generated still contain reached new high standing million</t>
+          <t>ftx estate mobilizes millions centralized exchanges second major move</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2516,14 +2516,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>traditional cloud computing rlc in discussion diving decentralized cloud computing might superior choice compared traditional cloud computing</t>
+          <t>another amp token art wallpaper amp</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2538,7 +2538,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>whos still fence oooookay</t>
+          <t>so many sidelined current etc move new narrative cme gap wont end well</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2546,14 +2546,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>happy birthday bluesparrow thank amazing followers making two years special heres great moments together</t>
+          <t>crypto ice age happens live sixjay charts markets more were going live friday pst est merch cl telegram</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2568,7 +2568,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>morning guys shill projects</t>
+          <t>get ready vertical accumulation</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>days ago wallet worth k but hours went m the question how plus new purchases</t>
+          <t>only one thing certain expect unexpected</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2591,14 +2591,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>what project start</t>
+          <t>these two big swing charts helped us accumulate cents zeroes seeing big swing charts go big go home brush</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2606,14 +2606,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>uk passes bill enable authorities seize bitcoin used crime filed september economic crime corporate transparency bill expected receive royal assent oct</t>
+          <t>jesus host you welcomed if jesus coin trillion if would like learn jesus pray learn jesus</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2621,14 +2621,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>discover the future q whats take saitamatokens potential transform crypto landscape share thoughts</t>
+          <t>breaking barriers making blockchain accessible worldwide pi network empowering everyday individuals cryptocurrency pi easily mine phone free join movement part revolution</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>jury hears sam bankmanfrieds testimony a lot people got hurt the former ftx ceo returned witness present testimony jury people criminal trial begins reach final stages</t>
+          <t>one things i like open random coin go wallets when i find big wallets i look tokens invested see i missing positions found lot decent xs wallet tracking</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2658,7 +2658,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>the time snag _________ which</t>
+          <t>havent given run mass</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2673,7 +2673,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>the future payments uber set get crypto twist ceo confirms embrace cryptocurrencies</t>
+          <t>we gone win baby</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2681,14 +2681,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>fuck it next collection going eth etc fine pepe floki shit doge cal hay link</t>
+          <t>the funding story is why is sick mainstream media</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2696,14 +2696,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>daily morning fact bubbles top performance lead</t>
+          <t>the progression starting memethen onto altwith final classification due time blue chip top not worth watching but worth investing</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>while market corrects settles little bit lunc ustc luna holding strong lunc looking launch stratosphere bull run takes off send</t>
+          <t>the next bull run approximately show true monetary value the work done throughout current bear market reflect prices which projects attract new substantial</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2726,14 +2726,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>here go breaking the dexs also looks like also corrected price million market cap under holders diamond waiting polished</t>
+          <t>thrilled no pipe dreams armed tangible alpha product real tech real impact join us journey grab mait tokens lets grow together</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2741,14 +2741,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>bbank absolute musthave gem the upcoming mastercard collar fideum rebrand send soaring brace potential even return dont sleep one ridiculously undervalued compared nexo cro</t>
+          <t>coin next months my guess soul populous</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2756,14 +2756,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>the token utility token ton blockchain plays vital role protocol it offers governance participation voting rights longterm staking deeply integrated protocols core mechanics</t>
+          <t>trivia night starts half hours jump starts</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2771,14 +2771,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>doge wave get art printed awesome products support redbubble</t>
+          <t>with growth rate six months mx token offers best worlds explore mx token mx discover wellkept secret world cryptocurrencies its journey stability endless possibilities blockchain technology</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2786,14 +2786,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>this next will print more millionaires than ever before change many peoples life will</t>
+          <t>paw not sitting porch running big dogs others sit porch bark</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>the energy high xroyaltys revive retreat thank warriors investing showing xroyalty nft</t>
+          <t>fam used immolation yet he defy allows fire splinter stronger magic team but break metal find video</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2823,7 +2823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>if new time align projects not great hype but great fundamentals kuji rarity place bets btc eth atom arb ada ftm algo near xtz</t>
+          <t>road top hands best community defi</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2831,14 +2831,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>just got delightful surprise received worth latest airdrop feeling like i hit jackpot</t>
+          <t>one latest acquisition im excited market space since with bull market around corner theres no better time launch next great project upgrade existing one</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>let us profit together i target i set next month atleast trades wins as new month comes closer vip channel opened new subscribers dm want join i decided membership cap vip channels</t>
+          <t>top loan platforms in follow latest</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2868,7 +2868,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>hidden gems been fire all week hit link subscribe show music legend</t>
+          <t>the smart dudes invest but smartest dudes also invest whale is</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2883,7 +2883,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>for algo governance enjoy massive nice free algorand it wont last forever</t>
+          <t>new uk bill intensify crackdown illicit details</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>received founders cards last night alien deck looks pimping ty</t>
+          <t>two words btc</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>meanwhile sleepy joe dip million market cap smallest coinbase doesnt want move</t>
+          <t>different form trading it range trading past years best exponential wave trading guidance early and certainly important punting</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>we excited announce official launch cadinu affiliate marketing program read</t>
+          <t>dont miss passive income train stake iac tokens upcoming staking platform earn like never get ready launch</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>when read paw wastepaper realize true scope magnitude ecosystem its really projects wrapped one a one stop shop going simplify change landscape once word gets people catch building better buckle</t>
+          <t>check friends astor wealth group advisory financing</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2958,7 +2958,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>gm everyone exciting news elevate crypto journey mealtime web news get week free trial today download</t>
+          <t>retweet first just give minute hours earn everyday so join mine daily use andi invitation code note use name per id</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2973,7 +2973,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>hey websec fam were collaborating get top opportunities daily update elevate career web</t>
+          <t>curious crypto earning rewards its gamechanger world learn proofofstake works start staking netcoins mobile app your crypto rewards</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2988,7 +2988,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ive added vka long term portfolio bought small bag possible ex limo only m market cap</t>
+          <t>i want congratulate taking initiative project managerthe appreciates india future we drink chai together lunc hits</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2996,14 +2996,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>shill next big ready explode</t>
+          <t>let sink ranked projects paw dont let pride get way</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -3018,7 +3018,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>good eveningnight daily update still stuck increase businesses prestige soon enough diamond complete last but reached qs gold keep building</t>
+          <t>the secrets behind cryptocurrency transactions discover reshaping way analyze monitor activity</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -3026,14 +3026,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>havoc still holding pattern formation like boss awesome opportunity right btc eth</t>
+          <t>our weekly wrap rockets highs usk etf excitement grows jumps sec drops charges against execs rallies week yeartodate gains read subscribe</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -3041,14 +3041,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>chia xch price recovers recent fud sell off</t>
+          <t>im today covering samuel bankmanfried fraud trial hilarious ramifications capitalism raise schadenfreude levels unsustainable proportions</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -3056,14 +3056,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>not bad i</t>
+          <t>grab free one week sanbase pro membership see metrics chat pro traders use data daily basis enjoy trial see others cant</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -3078,7 +3078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>the eyes geishaswatching why not shibarium</t>
+          <t>memecoin keeps surprising surged over today find massive token burn anticipation blackrocks btc etf approval contributed impressive rally check full story</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -3086,14 +3086,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>going havent even seen mega send dildos yet soooooooooon</t>
+          <t>participate usdt floxypay zealy giveaway contest reward pool usdt top usdt top usdt duration oct nov sam bankman meme</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -3108,7 +3108,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>the rise new meme king a king thats gonna make meme projects tremble follow part great project also remember partake resale live dont miss</t>
+          <t>pleased launch rules follow rt tweet pinned tweet tag friends h</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>feel impact token it speeds up your journey success</t>
+          <t>breaking news improved payment system feature if login payment not pi account pi wallet restricted cannot trade</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -3131,14 +3131,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t xml:space="preserve"> surprise</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>what concept blockchain cannot achieve decentralization stability capability update</t>
+          <t>amazing chart ubxs marketplace coming soon</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -3146,14 +3146,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>web innovation endless opportunities</t>
+          <t>altcoins dominance altcoins buy zone</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -3161,14 +3161,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>dont tweet much but i respect massive bullish chart presenting this thing going blow might lead acts doesnt</t>
+          <t>link looks like next weeks</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>felix sending lfg we outside lfg chart tg</t>
+          <t>usd hours follow retweet like</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -3191,14 +3191,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>sgx cuttingedge decentralized perpetual trading platform within project empowers secure trading sgx guarantees liquidity times profits allocated squidgrow token buyback liquidity enhancement</t>
+          <t>people be like oh no xrp buy back wont happen meanwhile ripple ceo sitting with polysign ceo</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -3206,14 +3206,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>goodnight family we going great journey year years come this project going big sweet dreams night love paw</t>
+          <t>most not ready when wan hits</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -3221,14 +3221,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>terra classic price parabolic recovery nearing crucial breakout point despite long descending trend lunc making efforts break markets stable creating optimism</t>
+          <t>undervalued long its time gets recognition deserves</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -3236,14 +3236,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>hour countdown begins a new epoch horizon nett metis staking rewards thanks get ready stake maximize rewards</t>
+          <t>decentralized ai future innovation ready part join badideaai start making difference today bad shib</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -3258,7 +3258,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>yes sis our excellent educators always happy share knowledge</t>
+          <t>theres lot filled orders pre market trading i think everyone aware newest product bibi rep dmtr gomt smrtr choke rekt rpg raca igu lai prx gas</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -3266,14 +3266,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>market propped like crazy anyone know weekends wild recently specifically target weekends</t>
+          <t>exciting news univault teaming thrilling community giveaway stay tuned quest details event date get ready unforgettable experience</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -3281,14 +3281,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>massive shout holder collection i congratulate fine well releasing animated nft collection next first one sera pepe eth etc</t>
+          <t>floki token take over space arms</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -3296,14 +3296,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>unlock global opportunities cut fees boost sales dive world crypto payments commerce learn fuse turn business crypto success story explore blog post</t>
+          <t>blow gearing another explosive move upwards ill see</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -3318,7 +3318,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ill second habibi dubx</t>
+          <t>embrace adventure soar cosmic tides this isnt crypto trend journey moon together well not rise but shine brighter ever keep believing keep trending stay</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -3326,14 +3326,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>thank much free class i learnt lot break everything some us think but not i setup trading view also know entry indicator show usethe</t>
+          <t>this is the best time to buy</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>read analysis executive director along jihadi organizations raised over million fund jihad against date</t>
+          <t>completely become peoples daily routine means earning the way people adopting pi no one stop becoming local currency whole world</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>if ready take commerce next level id advise embrace payments unlock world opportunities you boost sales slash fees expand reach across world use technology built</t>
+          <t>many blockchains one ceo pulls strings motherland over ceos spread across whole world independently vote future upgrades true decentralization not simple point yet tezos gets done</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -3371,14 +3371,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>i pride able communicate things sensual manner expressed laymen terms so i make simple possible i continued buy relentlessly late last year simple reason my educated view longterm assets would outpace purchasing power us dollar btc</t>
+          <t>i like wake early saturday i take dip pool start day excited possibilities arise i wish great saturday leave i know support i follow back</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3386,14 +3386,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>new gemsradar listing tkst tokensight listed gemsradar reaching votes check</t>
+          <t>whos still fence oooookay</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>banger pick market cheat code btc chart dying huge delisting</t>
+          <t>happy birthday bluesparrow thank amazing followers making two years special heres great moments together</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3423,7 +3423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>looking reliable way transfer digital assets anywhere world seamlessly solution by ensuring secure instant global transaction lowest transaction fees equipped multicurrency support sure way trade</t>
+          <t>morning guys shill projects</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3438,7 +3438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>great video atom link rune uni ant vet ada geld magic sol op hear ava algo atm near sand gala sui kas mix</t>
+          <t>days ago wallet worth k but hours went m the question how plus new purchases</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3453,7 +3453,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>congrats axs biggest green dildo hour</t>
+          <t>what project start</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3468,7 +3468,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>taiwan introduces bill aiming create regulatory framework the bills primary goal establish rules virtual asset service providers protect investors maintain financial stability</t>
+          <t>discover the future q whats take saitamatokens potential transform crypto landscape share thoughts</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>we excited announce collaboration were looking forward utilising distribution contests tournaments major events high hopes pairing</t>
+          <t>the time snag _________ which</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3498,7 +3498,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>monthly i believe dgb</t>
+          <t>the future payments uber set get crypto twist ceo confirms embrace cryptocurrencies</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3506,14 +3506,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>guys new resale link whitest mark alarms start hours im counting fox inu raise everyones wealth</t>
+          <t>daily morning fact bubbles top performance lead</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3521,14 +3521,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>drop love brad well</t>
+          <t>while market corrects settles little bit lunc ustc luna holding strong lunc looking launch stratosphere bull run takes off send</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>all staking baking gonna get customs sorted aria first priority nfa dyor building stay going pick floor off goes way drillclub</t>
+          <t>here go breaking the dexs also looks like also corrected price million market cap under holders diamond waiting polished</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3551,14 +3551,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>breaking news</t>
+          <t>bbank absolute musthave gem the upcoming mastercard collar fideum rebrand send soaring brace potential even return dont sleep one ridiculously undervalued compared nexo cro</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>which project will pump soon vra spx ret dorkl</t>
+          <t>if new time align projects not great hype but great fundamentals kuji rarity place bets btc eth atom arb ada ftm algo near xtz</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3581,14 +3581,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>top project crypto project sitting mio mcap people realize gem paw top gainer next two years inevitable rebrand around corner</t>
+          <t>let us profit together i target i set next month atleast trades wins as new month comes closer vip channel opened new subscribers dm want join i decided membership cap vip channels</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>million users across countries chosen klever wallet unparalleled blend cuttingedge tech userfriendly interface</t>
+          <t>hidden gems been fire all week hit link subscribe show music legend</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3611,14 +3611,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>crypto call its sama dot parachain mcap m ceo adam from ewt community really active chart going wild games built staking active week dont cry later buy mexc uniswap</t>
+          <t>received founders cards last night alien deck looks pimping ty</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3626,14 +3626,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>amazing car even better number plate kas perfect kaspa hodler</t>
+          <t>we excited announce official launch cadinu affiliate marketing program read</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>its throwback what first gainz</t>
+          <t>when read paw wastepaper realize true scope magnitude ecosystem its really projects wrapped one a one stop shop going simplify change landscape once word gets people catch building better buckle</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>creative process exclusive art im tomorrow another painting stream finish hope like a great timelapse coming</t>
+          <t>gm everyone exciting news elevate crypto journey mealtime web news get week free trial today download</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3678,7 +3678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>mint details revealed total supply pandas minting price og original gangsters free wl whitelist inj public inj get ready mint unique panda</t>
+          <t>shill next big ready explode</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>its no secret vast majority flourished second half october particularly large mid cap assets while assessing portfolio mindful assets may radar compared averages eth ada xlm</t>
+          <t>good eveningnight daily update still stuck increase businesses prestige soon enough diamond complete last but reached qs gold keep building</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>trillioner cryptocurrency project versatile platform thats shaping future digital interactions</t>
+          <t>havoc still holding pattern formation like boss awesome opportunity right btc eth</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3716,14 +3716,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>holders distribution last airdrop underway remember add gchain wallet view coins stay tuned updates next airdrop soon</t>
+          <t>chia xch price recovers recent fud sell off</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3731,14 +3731,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ok one bear market meal lobster comes table fair id still eat bull i get cravings bad boys sometimes nil</t>
+          <t>not bad i</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3746,14 +3746,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ace would ace big partners ace website</t>
+          <t>going havent even seen mega send dildos yet soooooooooon</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>the future digital asset management get ready experience power vip ultimate platform eth bsc investments</t>
+          <t>feel impact token it speeds up your journey success</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3776,14 +3776,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>damn try went months since august</t>
+          <t>what concept blockchain cannot achieve decentralization stability capability update</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>i wrote article largest dex it unique advantagesyncswap smart router more</t>
+          <t>i cant believe much market changed past years</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3806,14 +3806,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>rao cash new bitcoin killer earn x become millionaire dont miss last chance get rich rao big whales coming ca xaebacedfebaabb buy rao cash</t>
+          <t>i cant believe much price nfts gone past years</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>my favorite memories last bullion actually not related it influential streamer joshs finance while subs shit live streams would return thousands real common investors one place one time little chatting given time sadly cannot find videos today back i known thor ruthless tough head moderator tolerance policy while i ruthless banned anyone even throwing eggplant emoji it style channel fun upbeatruthless josh would let everyone one depths banned swoop rebar the next crypto bullion produce similar fun exciting times new type investing i wish not around last time get ready time lives i mine get ready</t>
+          <t>i cant believe much market recovered past weeks</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3836,14 +3836,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>picked today offer finally got acceptedparallel alpha one edition very rare undervalued opinion</t>
+          <t>i cant believe much popularity nfts grown past years</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3851,14 +3851,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>get ready team the first game week around corner</t>
+          <t>i cant believe much price bitcoin fluctuating lately</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3866,14 +3866,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ftx estate mobilizes millions centralized exchanges second major move</t>
+          <t>ethereum today</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3881,14 +3881,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>another amp token art wallpaper amp</t>
+          <t>i cant believe much popularity metaverse growing</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3896,14 +3896,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>so many sidelined current etc move new narrative cme gap wont end well</t>
+          <t>i cant believe much use cryptocurrency payments growing</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3918,7 +3918,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>crypto ice age happens live sixjay charts markets more were going live friday pst est merch cl telegram</t>
+          <t>i cant believe much crypto market changed past years</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3926,14 +3926,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>get ready vertical accumulation</t>
+          <t>i cant believe much nft market grown past years</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3941,14 +3941,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>only one thing certain expect unexpected</t>
+          <t>i cant believe much crypto market matured past years</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3956,14 +3956,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>these two big swing charts helped us accumulate cents zeroes seeing big swing charts go big go home brush</t>
+          <t>i cant believe much popularity defi grown past years</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3971,14 +3971,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>jesus host you welcomed if jesus coin trillion if would like learn jesus pray learn jesus</t>
+          <t>i cant believe much crypto space evolved past years</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>breaking barriers making blockchain accessible worldwide pi network empowering everyday individuals cryptocurrency pi easily mine phone free join movement part revolution</t>
+          <t>i cant believe much popularity crypto gaming grown past years</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -4001,14 +4001,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>one things i like open random coin go wallets when i find big wallets i look tokens invested see i missing positions found lot decent xs wallet tracking</t>
+          <t>great video atom link rune uni ant vet ada geld magic sol op hear ava algo atm near sand gala sui kas mix</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>havent given run mass</t>
+          <t>would buy crypto friend suggested</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -4031,14 +4031,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>we gone win baby</t>
+          <t>grt has exited downtrend price support zone grt follow fet ai trend tp stl ready pump grt btc eth</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -4046,14 +4046,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>the funding story is why is sick mainstream media</t>
+          <t>the ultimate strategy buy stake burn thrive with invest unlock sustainable wealth favorite tokens</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>the progression starting memethen onto altwith final classification due time blue chip top not worth watching but worth investing</t>
+          <t>gm i bought super nfts drop your nft i bought wonderful artistic nfts i support check nft collection available follovretweet</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -4083,7 +4083,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>the next bull run approximately show true monetary value the work done throughout current bear market reflect prices which projects attract new substantial</t>
+          <t>hard cap soft cap hit right target hard soft caps fundraising were break</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>thrilled no pipe dreams armed tangible alpha product real tech real impact join us journey grab mait tokens lets grow together</t>
+          <t>the story whether gets approval not undeniably become immutable epicenter be part future love smile sec chair gary gensler</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>coin next months my guess soul populous</t>
+          <t>hit new record price risen twomonth high whilst shib total addresses ever generated still contain reached new high standing million</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -4121,14 +4121,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>trivia night starts half hours jump starts</t>
+          <t>traditional cloud computing rlc in discussion diving decentralized cloud computing might superior choice compared traditional cloud computing</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>with growth rate six months mx token offers best worlds explore mx token mx discover wellkept secret world cryptocurrencies its journey stability endless possibilities blockchain technology</t>
+          <t>uk passes bill enable authorities seize bitcoin used crime filed september economic crime corporate transparency bill expected receive royal assent oct</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -4151,14 +4151,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>paw not sitting porch running big dogs others sit porch bark</t>
+          <t>jury hears sam bankmanfrieds testimony a lot people got hurt the former ftx ceo returned witness present testimony jury people criminal trial begins reach final stages</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -4166,14 +4166,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>fam used immolation yet he defy allows fire splinter stronger magic team but break metal find video</t>
+          <t>fuck it next collection going eth etc fine pepe floki shit doge cal hay link</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -4181,14 +4181,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>road top hands best community defi</t>
+          <t>the energy high xroyaltys revive retreat thank warriors investing showing xroyalty nft</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -4203,7 +4203,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>one latest acquisition im excited market space since with bull market around corner theres no better time launch next great project upgrade existing one</t>
+          <t>just got delightful surprise received worth latest airdrop feeling like i hit jackpot</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -4218,7 +4218,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>top loan platforms in follow latest</t>
+          <t>for algo governance enjoy massive nice free algorand it wont last forever</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>the smart dudes invest but smartest dudes also invest whale is</t>
+          <t>meanwhile sleepy joe dip million market cap smallest coinbase doesnt want move</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -4248,7 +4248,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>new uk bill intensify crackdown illicit details</t>
+          <t>hey websec fam were collaborating get top opportunities daily update elevate career web</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -4263,7 +4263,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>two words btc</t>
+          <t>ive added vka long term portfolio bought small bag possible ex limo only m market cap</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -4271,14 +4271,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>different form trading it range trading past years best exponential wave trading guidance early and certainly important punting</t>
+          <t>the eyes geishaswatching why not shibarium</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>dont miss passive income train stake iac tokens upcoming staking platform earn like never get ready launch</t>
+          <t>the rise new meme king a king thats gonna make meme projects tremble follow part great project also remember partake resale live dont miss</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -4301,14 +4301,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>check friends astor wealth group advisory financing</t>
+          <t>web innovation endless opportunities</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -4323,7 +4323,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>retweet first just give minute hours earn everyday so join mine daily use andi invitation code note use name per id</t>
+          <t>yes sis our excellent educators always happy share knowledge</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -4338,7 +4338,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>curious crypto earning rewards its gamechanger world learn proofofstake works start staking netcoins mobile app your crypto rewards</t>
+          <t>market propped like crazy anyone know weekends wild recently specifically target weekends</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -4346,14 +4346,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>i want congratulate taking initiative project managerthe appreciates india future we drink chai together lunc hits</t>
+          <t>massive shout holder collection i congratulate fine well releasing animated nft collection next first one sera pepe eth etc</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>let sink ranked projects paw dont let pride get way</t>
+          <t>unlock global opportunities cut fees boost sales dive world crypto payments commerce learn fuse turn business crypto success story explore blog post</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -4376,14 +4376,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>the secrets behind cryptocurrency transactions discover reshaping way analyze monitor activity</t>
+          <t>ill second habibi dubx</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -4391,14 +4391,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>our weekly wrap rockets highs usk etf excitement grows jumps sec drops charges against execs rallies week yeartodate gains read subscribe</t>
+          <t>thank much free class i learnt lot break everything some us think but not i setup trading view also know entry indicator show usethe</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>im today covering samuel bankmanfried fraud trial hilarious ramifications capitalism raise schadenfreude levels unsustainable proportions</t>
+          <t>read analysis executive director along jihadi organizations raised over million fund jihad against date</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -4428,7 +4428,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>grab free one week sanbase pro membership see metrics chat pro traders use data daily basis enjoy trial see others cant</t>
+          <t>if ready take commerce next level id advise embrace payments unlock world opportunities you boost sales slash fees expand reach across world use technology built</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -4443,7 +4443,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>roguex scoundrels listen its time announcement stage launch plan read medium article get ready chance earn participate launching roguex read</t>
+          <t>i pride able communicate things sensual manner expressed laymen terms so i make simple possible i continued buy relentlessly late last year simple reason my educated view longterm assets would outpace purchasing power us dollar btc</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -4451,14 +4451,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>bitcoin halving april next bull market peak could occur days halving bitcoin could peak midseptember midoctober btc</t>
+          <t>new gemsradar listing tkst tokensight listed gemsradar reaching votes check</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -4466,14 +4466,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>shill moon bag</t>
+          <t>banger pick market cheat code btc chart dying huge delisting</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>node something worth investing asia still latest update list countries developing project</t>
+          <t>looking reliable way transfer digital assets anywhere world seamlessly solution by ensuring secure instant global transaction lowest transaction fees equipped multicurrency support sure way trade</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -4496,14 +4496,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>dione threatening symmetrical triangle a break see us reach new ath parabolic move</t>
+          <t>congrats axs biggest green dildo hour</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -4518,7 +4518,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>giveaway alert usdt lucky winners rules tag friends like retweet</t>
+          <t>taiwan introduces bill aiming create regulatory framework the bills primary goal establish rules virtual asset service providers protect investors maintain financial stability</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>freedom traders atm airdrop ltc</t>
+          <t>we excited announce collaboration were looking forward utilising distribution contests tournaments major events high hopes pairing</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>trending x successful launch created strong buzz thats hard ignore with userfriendly platform creating tokens tokenizing assets collaborations biggest names industry positioned become major player projected trillion industry</t>
+          <t>i cant believe much popularity crypto gaming grown past years</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4556,14 +4556,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>here interviewof man bring us breaking news whether or noncrypto he also host he spokes vc funding many</t>
+          <t>i cant believe much market changed past years</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4571,14 +4571,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>weekly forecast oct nov key insights market week weekly pump a gamechanger various scenarios might encounter shifting stance quickly vital part trading success recap last week in last bitcoin weekly forecast i acknowledged recent btc pump exceeded expectations i also emphasized persistent rise btc dominance indicating strength relative even if btc maintains upward momentum breaches resistance zone need monitor monthly resistance levels sky the price action unfolded impressively featuring substantial green weekly candle ok considering wick weekly close sky though beamish stance argue btc closed monthly resistance surpass previous weekly resistance levels this pump stage appears potential gamechanger introducing significant uncertainty mix facing multiple scenarios ahead we new btc monthly candle days monthly close matters lot if monthly close super bullish targets set ok possibility surging past ke monthly close bullish well especially following positive weekly close ke avoiding sharp drop next days maintains bullish outlook aim targets scenario minor fullback monthly close beamish signaling probable return previous range ke so summary market may either pump without shallow fullback leaving sidelines away experience sharp drop confirming recent pump trap traders either upcoming pump dump big one people expect decent pull back get car may not get chance shifting stance quickly vital part trading success to honest im currently taking happy stance without bias toward either bullish beamish my trading setups align btcs price evolves its crucial highlight importance taking profits three months ago i sold spot btc shorted ok closing sky i later purchased spot went long closing long positions but im still holding onto spots you track trades timeline timely profittaking grants flexibility price action deviates slightly expectations allowing new trading setups in trading perfection isnt attainable what truly matters adapt different price movements if enjoyed forecasts analysis please dont forget follow market insights like rt bookmark drop comment</t>
+          <t>i cant believe much popularity playtoearn games grown past years</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4586,14 +4586,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>buckle enthusiasts exciting news horizon uber ridehailing giant gearing accept crypto payments imagine hopping ride paying cndy the future transactions get ready cryptofriendly ride</t>
+          <t>i cant believe much adoption crypto payments growing</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4601,14 +4601,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>in days wallet went ok the path mcdonalds worker crypto millionaire heres lifechanging story how analyze smart money</t>
+          <t>ethereum merging proof stake</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4623,7 +4623,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>lets celebrate pump bull market confirmed i wanna say all bears bye</t>
+          <t>the token utility token ton blockchain plays vital role protocol it offers governance participation voting rights longterm staking deeply integrated protocols core mechanics</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4631,14 +4631,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>elevate your experience interoperability unlock unlimited possibilities bridging disparate blockchains ponder ensures smooth secure seamless transactions across multiple networks fostering innovation expanding crypto horizons</t>
+          <t>doge wave get art printed awesome products support redbubble</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4646,14 +4646,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>us central bank eyes digital dollar counter brics pay with international trade trends changing us central bank said eyeing creation digital dollar brics economic alliance announced brics pay system</t>
+          <t>dont tweet much but i respect massive bullish chart presenting this thing going blow might lead acts doesnt</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4661,14 +4661,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>gm best community</t>
+          <t>this next will print more millionaires than ever before change many peoples life will</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4676,14 +4676,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>we fine i hope day</t>
+          <t>felix sending lfg we outside lfg chart tg</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>active users ath healing</t>
+          <t>sgx cuttingedge decentralized perpetual trading platform within project empowers secure trading sgx guarantees liquidity times profits allocated squidgrow token buyback liquidity enhancement</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4713,7 +4713,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>bitcoins potential</t>
+          <t>goodnight family we going great journey year years come this project going big sweet dreams night love paw</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>weekly winners follow like retweet tweet the ends friday november</t>
+          <t>terra classic price parabolic recovery nearing crucial breakout point despite long descending trend lunc making efforts break markets stable creating optimism</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4736,14 +4736,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>sounds like found perfect tool transfer digital assets now expand crypto horizons indulge unbelievable benefits xbridge building bridges limitless potential</t>
+          <t>hour countdown begins a new epoch horizon nett metis staking rewards thanks get ready stake maximize rewards</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4751,14 +4751,14 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>fashionable embodiment tells story female beauty power selfexpression fashion this artwork encourages us see beauty diversity cultures styles price</t>
+          <t>bitcoin halving april next bull market peak could occur days halving bitcoin could peak midseptember midoctober btc</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4766,14 +4766,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>new youtube video out now i hit a retro tapes max win please like sub use code eaglebets on casino for vip rewards</t>
+          <t>shill moon bag</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4788,7 +4788,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>thank us wonderfully organized meetup tonight fun meet connect one biggest communities</t>
+          <t>node something worth investing asia still latest update list countries developing project</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4796,14 +4796,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>brazils adoption soaring comprising whopping crypto transactions usdt seen significant surge adoption brazil accounting transactions country far as midoctober transactions brazil year amounted billion brazilian reais billion almost double volume bitcoin usdt transactions rise brazil since but crossed bitcoin volume first time july peak crypto industry storm last year crypto lenders three arrows capital voyager capital collapsed the crypto winter slashed volume crypto transactions country nearly ending billion reais billion government reported the brazilian tax agency tracks cryptorelated activities citizens using sophisticated system relies artificial intelligence network analysis according blog post system able detect suspicious activity well trace location individuals trading cryptocurrencies the revenue agency also targeting crypto investments held country citizens overseas on oct local congress passed legislation recognizes cryptocurrencies financial assets tax purposes foreign investments earnings overseas reais subject tax rate starting january above threshold taxes applied since crypto exchanges operating brazil required disclose user transactions government capital gains crypto sales exceeding reais per month subject progressive tax bracket global crypto exchanges coinbase binance bitso operate country alongside local players mercado bitcoin foxbit</t>
+          <t>giveaway alert usdt lucky winners rules tag friends like retweet</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4818,7 +4818,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>quiz as many i want</t>
+          <t>freedom traders atm airdrop ltc</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4833,7 +4833,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>were officially bull market</t>
+          <t>trending x successful launch created strong buzz thats hard ignore with userfriendly platform creating tokens tokenizing assets collaborations biggest names industry positioned become major player projected trillion industry</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4848,7 +4848,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>thailands largest bank kbank buys stake local exchange satang m</t>
+          <t>weekly forecast oct nov key insights market week weekly pump a gamechanger various scenarios might encounter shifting stance quickly vital part trading success recap last week in last bitcoin weekly forecast i acknowledged recent btc pump exceeded expectations i also emphasized persistent rise btc dominance indicating strength relative even if btc maintains upward momentum breaches resistance zone need monitor monthly resistance levels sky the price action unfolded impressively featuring substantial green weekly candle ok considering wick weekly close sky though beamish stance argue btc closed monthly resistance surpass previous weekly resistance levels this pump stage appears potential gamechanger introducing significant uncertainty mix facing multiple scenarios ahead we new btc monthly candle days monthly close matters lot if monthly close super bullish targets set ok possibility surging past ke monthly close bullish well especially following positive weekly close ke avoiding sharp drop next days maintains bullish outlook aim targets scenario minor fullback monthly close beamish signaling probable return previous range ke so summary market may either pump without shallow fullback leaving sidelines away experience sharp drop confirming recent pump trap traders either upcoming pump dump big one people expect decent pull back get car may not get chance shifting stance quickly vital part trading success to honest im currently taking happy stance without bias toward either bullish beamish my trading setups align btcs price evolves its crucial highlight importance taking profits three months ago i sold spot btc shorted ok closing sky i later purchased spot went long closing long positions but im still holding onto spots you track trades timeline timely profittaking grants flexibility price action deviates slightly expectations allowing new trading setups in trading perfection isnt attainable what truly matters adapt different price movements if enjoyed forecasts analysis please dont forget follow market insights like rt bookmark drop comment</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4856,14 +4856,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>which project strong community</t>
+          <t>buckle enthusiasts exciting news horizon uber ridehailing giant gearing accept crypto payments imagine hopping ride paying cndy the future transactions get ready cryptofriendly ride</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4878,7 +4878,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>this insider boosted portfolio years how possible earn ease lets analyze trades</t>
+          <t>lets celebrate pump bull market confirmed i wanna say all bears bye</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4886,14 +4886,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>new zealand rapper sesh dogecoin millionaire discuss first time met crypto billionaire shibtoshi</t>
+          <t>elevate your experience interoperability unlock unlimited possibilities bridging disparate blockchains ponder ensures smooth secure seamless transactions across multiple networks fostering innovation expanding crypto horizons</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4908,7 +4908,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>the founder bankrupt cryptocurrency exchange ftx testified court no gap balance sheet shortly insolvency sam bankmanfried could face decades prison alleged fraud</t>
+          <t>us central bank eyes digital dollar counter brics pay with international trade trends changing us central bank said eyeing creation digital dollar brics economic alliance announced brics pay system</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4923,7 +4923,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>unlock future emmit domains join over users thriving ecosystem make payments build websites part web revolution dont hesitate secure emmit domain</t>
+          <t>gm best community</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4938,7 +4938,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>king best but i cant imagine without evolution</t>
+          <t>active users ath healing</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4953,7 +4953,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>good morning wish nice week btc go moon</t>
+          <t>bitcoins potential</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4961,14 +4961,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>happy monday lovers have checked portfolio today</t>
+          <t>weekly winners follow like retweet tweet the ends friday november</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4983,7 +4983,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>xrp now available on the ledger cl card like how i said it was going to be well this actually will be useful for people who accumulated enough for some snack money</t>
+          <t>sounds like found perfect tool transfer digital assets now expand crypto horizons indulge unbelievable benefits xbridge building bridges limitless potential</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4991,14 +4991,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>crew go voyage great abilities inspired make big waves join great legion lets sail success</t>
+          <t>fashionable embodiment tells story female beauty power selfexpression fashion this artwork encourages us see beauty diversity cultures styles price</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -5013,7 +5013,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>flying sun last minutes</t>
+          <t>thank us wonderfully organized meetup tonight fun meet connect one biggest communities</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -5028,7 +5028,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>gm family i found new banger leading trading bot telegram simplify maximize trading success giveaway wl like retweet tag friends draw hours gmbot</t>
+          <t>brazils adoption soaring comprising whopping crypto transactions usdt seen significant surge adoption brazil accounting transactions country far as midoctober transactions brazil year amounted billion brazilian reais billion almost double volume bitcoin usdt transactions rise brazil since but crossed bitcoin volume first time july peak crypto industry storm last year crypto lenders three arrows capital voyager capital collapsed the crypto winter slashed volume crypto transactions country nearly ending billion reais billion government reported the brazilian tax agency tracks cryptorelated activities citizens using sophisticated system relies artificial intelligence network analysis according blog post system able detect suspicious activity well trace location individuals trading cryptocurrencies the revenue agency also targeting crypto investments held country citizens overseas on oct local congress passed legislation recognizes cryptocurrencies financial assets tax purposes foreign investments earnings overseas reais subject tax rate starting january above threshold taxes applied since crypto exchanges operating brazil required disclose user transactions government capital gains crypto sales exceeding reais per month subject progressive tax bracket global crypto exchanges coinbase binance bitso operate country alongside local players mercado bitcoin foxbit</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -5043,7 +5043,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>days left enter bchtv promotion contest only person qualifying entry far if participant receive prize money remember must poster public area links</t>
+          <t>quiz as many i want</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -5051,14 +5051,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>if sleep dream but study dream come true</t>
+          <t>were officially bull market</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -5073,7 +5073,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>exciting news the noahusdt exchange function officially launched noahswap bringing choices table withdraw profits anytime want start trading</t>
+          <t>thailands largest bank kbank buys stake local exchange satang m</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -5081,14 +5081,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>surprise</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>goodnight my frends lets make ad revenue money together follow like retweet and make me proud of you i will love you my fam forever lets wait for the crypto bullrun together gallop</t>
+          <t>which project strong community</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -5103,7 +5103,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>breaking news website updated the website roadmap updated the update includes dedicated page ultimatebot</t>
+          <t>new zealand rapper sesh dogecoin millionaire discuss first time met crypto billionaire shibtoshi</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -5118,7 +5118,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ethereum today</t>
+          <t>unlock future emmit domains join over users thriving ecosystem make payments build websites part web revolution dont hesitate secure emmit domain</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -5126,14 +5126,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>i cant believe much market changed past years</t>
+          <t>good morning wish nice week btc go moon</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -5141,14 +5141,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>i cant believe much price nfts gone past years</t>
+          <t>happy monday lovers have checked portfolio today</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -5156,14 +5156,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>i cant believe much market recovered past weeks</t>
+          <t>xrp now available on the ledger cl card like how i said it was going to be well this actually will be useful for people who accumulated enough for some snack money</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -5171,14 +5171,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>i cant believe much popularity nfts grown past years</t>
+          <t>crew go voyage great abilities inspired make big waves join great legion lets sail success</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -5186,14 +5186,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>i cant believe much price bitcoin fluctuating lately</t>
+          <t>days left enter bchtv promotion contest only person qualifying entry far if participant receive prize money remember must poster public area links</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -5201,14 +5201,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>i cant believe much popularity crypto gaming grown past years</t>
+          <t>if sleep dream but study dream come true</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -5216,14 +5216,14 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ethereum today</t>
+          <t>exciting news the noahusdt exchange function officially launched noahswap bringing choices table withdraw profits anytime want start trading</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -5231,14 +5231,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>i cant believe much market changed past years</t>
+          <t>goodnight my frends lets make ad revenue money together follow like retweet and make me proud of you i will love you my fam forever lets wait for the crypto bullrun together gallop</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -5246,14 +5246,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>i cant believe much adoption cryptocurrency growing</t>
+          <t>breaking news website updated the website roadmap updated the update includes dedicated page ultimatebot</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -5261,14 +5261,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>i cant believe much popularity playtoearn games grown past years</t>
+          <t>roguex scoundrels listen its time announcement stage launch plan read medium article get ready chance earn participate launching roguex read</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -5276,14 +5276,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>i cant believe much popularity metaverse growing</t>
+          <t>dione threatening symmetrical triangle a break see us reach new ath parabolic move</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -5291,14 +5291,14 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>i cant believe much use cryptocurrency payments growing</t>
+          <t>here interviewof man bring us breaking news whether or noncrypto he also host he spokes vc funding many</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -5306,14 +5306,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>i cant believe much crypto market changed past years</t>
+          <t>in days wallet went ok the path mcdonalds worker crypto millionaire heres lifechanging story how analyze smart money</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -5328,7 +5328,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>i cant believe much nft market grown past years</t>
+          <t>we fine i hope day</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -5336,14 +5336,14 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>i cant believe much popularity playtoearn games grown past years</t>
+          <t>new youtube video out now i hit a retro tapes max win please like sub use code eaglebets on casino for vip rewards</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -5351,14 +5351,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>i cant believe much crypto market matured past years</t>
+          <t>this insider boosted portfolio years how possible earn ease lets analyze trades</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -5373,7 +5373,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>i cant believe much popularity defi grown past years</t>
+          <t>the founder bankrupt cryptocurrency exchange ftx testified court no gap balance sheet shortly insolvency sam bankmanfried could face decades prison alleged fraud</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -5381,14 +5381,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>i cant believe much crypto space evolved past years</t>
+          <t>king best but i cant imagine without evolution</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -5396,14 +5396,14 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>i cant believe much adoption crypto payments growing</t>
+          <t>flying sun last minutes</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -5411,14 +5411,14 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>i cant believe much popularity crypto gaming grown past years</t>
+          <t>gm family i found new banger leading trading bot telegram simplify maximize trading success giveaway wl like retweet tag friends draw hours gmbot</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -5426,14 +5426,14 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ethereum merging proof stake</t>
+          <t>ethereum today</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -5448,7 +5448,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>the libs employed people lining food banks defaulting mortgages unable current homes childrens children still paying liberal debt pierre discussed crypto bought shawarma bitcoin marks gotcha</t>
+          <t>the uncertainty crypto scaring day</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -5456,14 +5456,14 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>dont tell not buying hbar your biggest mistake bull run friend</t>
+          <t>crypto investing become nightmare i cant wake</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -5471,14 +5471,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>beware pump dump schemes cryptocurrency</t>
+          <t>every crypto dip chips away sanity utterly disappointed</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -5486,14 +5486,14 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>is bull market</t>
+          <t>anger doesnt even begin cover i feel crypto crash</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -5501,14 +5501,14 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>red candle possible tomorrow per pressure date price action support intraday stoploss must trading</t>
+          <t>im sad i missed recent bull run</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -5516,14 +5516,14 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>did position correctly ants die arthur aardvark ardvrk</t>
+          <t>cant believe market tanking why i even invest</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -5531,14 +5531,14 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ready take let battle begin latest news gary cryptocurrency area filled fraud scams bankruptcy money laundering</t>
+          <t>i lost money ftx hack</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -5546,14 +5546,14 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>cryptos volatility keeps us toes</t>
+          <t>missed dont miss opportunity bitcoin exchanger bybit</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -5561,14 +5561,14 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>these bitcoin price predictions what think do agree</t>
+          <t>crypto winter feels colder ever portfolios</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -5576,14 +5576,14 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>hold tight over million vanished minutes reminding us leverage no joke crypto market read shocking losses link</t>
+          <t>im scared crypto winter</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -5598,7 +5598,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>uni only valid long scalp after breaking of trendline and flip grey resistance to support and hold that box then next target in green zones above no flip of box and hold no trendline break means no entry</t>
+          <t>im scared government ban crypto mining</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -5613,7 +5613,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>free since signal moonboys advice people buy etc dip gets thousands interactions i nailed lot moves lately no one cares</t>
+          <t>our founder eglantyne jebb said every war against children as continue mission support speak all children convert impact donate others</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -5621,14 +5621,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>the first bullish signal close kumo cloud candle d major mms resistance crossed ill watch possible violations happen main idea bull trap</t>
+          <t>the constant fear crypto volatility exhausting</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -5636,14 +5636,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>the total cryptocurrency market capitalization decreased third quarter year compared previous quarter</t>
+          <t>the constant dread losing crypto unbearable</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -5651,14 +5651,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>lmao all big crypto expert pages influenced retail trader waited nothing not happen swell depression dip altcoins hilarious these pages blocked</t>
+          <t>hacked cant trust exchange days</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -5673,7 +5673,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>xvi looks like adameve pattern completed chart price seems accumulating around neckline formation</t>
+          <t>crypto done nothing but fuel anger frustration</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -5681,14 +5681,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>just in largest defi protocol solana reportedly quits uk market citing fca rule</t>
+          <t>lmao all big crypto expert pages influenced retail trader waited nothing not happen swell depression dip altcoins hilarious these pages blocked</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5696,14 +5696,14 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>good day be careful needs sold soon the highlighted zones chart sell zone</t>
+          <t>cryptos unpredictability neverending source anxiety</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5718,7 +5718,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>whats going binance experiencing problems crypto withdrawals temporarily unavailable</t>
+          <t>the endless crypto market crash infuriating when end</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5726,14 +5726,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>scam crypto projects exposed diamond listed mexc exchange rootstock infrastructure framework listed binance futures</t>
+          <t>feels like im throwing money black hole</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5741,14 +5741,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>jonathan farnell former head binance uk left company uks fca imposes stricter rules crypto advertising what think means binances future crypto industry whole</t>
+          <t>scam crypto projects exposed diamond listed mexc exchange rootstock infrastructure framework listed binance futures</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5756,14 +5756,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>new crypto exchange binance temporarily halts crypto withdrawals due technical problems the cryptocurrency market records billion trading volume binance assures users funds secure</t>
+          <t>why hack every pump dump happens asleep</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>sad see another key player leave binance uk wonder impact exchanges future plans competition crypto space</t>
+          <t>the first bullish signal close kumo cloud candle d major mms resistance crossed ill watch possible violations happen main idea bull trap</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5793,7 +5793,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>did know solving rubiks cube easier understanding concepts but dont worry well break itemized pieces</t>
+          <t>the unpredictability crypto terrifying never know whats next</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5808,7 +5808,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>its time i buying back bpgo as i said many times buy bpgo goes it cost</t>
+          <t>the looming threat crypto crash keeps edge</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5823,7 +5823,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>what exit pump anything happen wait confirmations invest</t>
+          <t>feeling utterly despondent over crypto losses</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5831,14 +5831,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>attention crypto enthusiasts stay one step ahead scammers bbbs tracker discover reported crypto scams area anywhere north america protect investments knowledge power</t>
+          <t>im furious volatile unreliable crypto proven</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5846,14 +5846,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>israeli authorities ordered dozens cryptocurrency accounts closed seized millions dollars worth coins step longstanding efforts cut links crypto markets attack country</t>
+          <t>fuckn right heres stupid conquer space jeets rest charts full force send jeets moon diamond fun hands map reversing ca xfbffaabafbbbddbf</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5861,14 +5861,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>nailing whole think time cautious acts wolf pattern ob lower high divergence could wrong</t>
+          <t>every time i think rally plunges feeling hopeless</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5876,14 +5876,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>be cautious unofficial apps websites related cryptocurrency use verified guaranteed safe apps websites ensure not fall victim fraudulent activities lose money</t>
+          <t>breaking point relentless crypto crashes</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5891,14 +5891,14 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>cryptocurrency lending firm blockfi declared bankruptcy prepared reimburse debtors</t>
+          <t>the overlooking crypto crash threat keeps constant fear</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5906,14 +5906,14 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ffs stop give hours accumulate jesus i want elm november stop raising prices</t>
+          <t>fear losing crypto keeps night</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5921,14 +5921,14 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>bad news market the ticker blackrocks spot etf ibtc removed dtcc website</t>
+          <t>beware pump dump schemes cryptocurrency</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5936,14 +5936,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>just reminder scam stay humble stay</t>
+          <t>im scared government crackdown cryptocurrency</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5951,14 +5951,14 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>will set you up for life</t>
+          <t>im angry scammers prey new crypto investors</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5966,14 +5966,14 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ever wonder happened bambi mom tragically murdered here little sneak peek bam life buy bam</t>
+          <t>terrified governments new regulations affect crypto</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5988,7 +5988,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>rsi high enough theres nowhere left got when evacuate dump gas we waiting</t>
+          <t>the fear crypts next move keeps awake night</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -6003,7 +6003,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>scary new crypto tax rules everyone aware worried rt</t>
+          <t>sam bankmanfried denies defrauding ftx users trial as final witness defense case former ftx ceo placed blame crypto exchanges failure gary wang nishad singh</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -6011,14 +6011,14 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>fear greed index greed</t>
+          <t>crypto over years old isnt new upstart thing nft fad already came went everyone knew bad idea except speculators lying grifters</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -6026,14 +6026,14 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>sam bankmanfried denies defrauding ftx users trial as final witness defense case former ftx ceo placed blame crypto exchanges failure gary wang nishad singh</t>
+          <t>crypto nothing but series letdown feeling defeated</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -6041,14 +6041,14 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>fuckn right heres stupid conquer space jeets rest charts full force send jeets moon diamond fun hands map reversing ca xfbffaabafbbbddbf</t>
+          <t>rsi high enough theres nowhere left got when evacuate dump gas we waiting</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -6056,14 +6056,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>warn bernie madoff case inevitable</t>
+          <t>not sure wallet secured due reports hacks keep crypto secured worlds first noncustodial wallet no seed phrase vulnerability supporting</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -6078,7 +6078,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>i know nothing but technical analysis says problem</t>
+          <t>im done too many scams little regulations</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -6086,14 +6086,14 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>so couple ok weeks but nothing not even started yet chain t ndas this way go etfs bull</t>
+          <t>watching crypto savings disappear heartwrenching</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -6108,7 +6108,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>from skyhigh surges staggering losses unpacking markets day journey</t>
+          <t>the dread another crypto crash always</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -6116,14 +6116,14 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>dont invest afford lose extremely volatile its true pump but also go zero if worried losing money invested probably invested much</t>
+          <t>feeling deep sense loss crypto portfolio</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -6131,14 +6131,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>sbf trial week concludes sbf telling jury blindsided b shortfall</t>
+          <t>every crypto downturn feels like personal attack so frustrated</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -6146,14 +6146,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>the ceo binance experienced billion loss result declining trading volumes former competitor sbfs net worth remains zero check details</t>
+          <t>these bitcoin price predictions what think do agree</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -6161,14 +6161,14 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>why hard talk you cant even say straight faced so see theres guy named paulyx but thats not really name anyways liked pumpkin pie teenager likes cf i want franchise one st thomas crypto bestie pineapple we think sent money pauly we team get pissed people call scammers yes heroin messed shit but hes sober so really likes pepe frog i randomly found space spaces bunch people dont know one another talk like totally legit way find someone send money he told us wed get nothing we believed but hunch bigger it we minded new dex ill table tell bit weve swapping nonstop rewards we dont know means yet but bet pepe dont worry thought hes working elon take entire financial system ill making liquid yum life kraken released at least thats speculate faces melted</t>
+          <t>sad see another key player leave binance uk wonder impact exchanges future plans competition crypto space</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -6176,14 +6176,14 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>halloween right around corner dont get tricked fangs cefi enjoy treat financial freedom</t>
+          <t>regret investing crypto without proper research feeling burnt</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -6191,14 +6191,14 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>people keep describing experience sitting courtroom surreal frankly surreal thing courtroom he may hate but im massive oc fan im frankly conflicted</t>
+          <t>ffs stop give hours accumulate jesus i want elm november stop raising prices</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -6206,14 +6206,14 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>my portfolio much</t>
+          <t>cant believe i fell phishing scam crypto wild west</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -6221,14 +6221,14 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>solana</t>
+          <t>feel completely betrayed crypto markets promises</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -6236,14 +6236,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>bitcoin crashing</t>
+          <t>the fear never recovering crypto investment real</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -6258,7 +6258,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>i lost money bear market</t>
+          <t>just lost half investment crypto crash feeling devastated</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -6273,7 +6273,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>im angry government regulating crypto</t>
+          <t>im scared recession impact crypto market</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -6281,14 +6281,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>im scared losing money crypto market</t>
+          <t>xvi looks like adameve pattern completed chart price seems accumulating around neckline formation</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -6303,7 +6303,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>i made bad trade lost lot money</t>
+          <t>the anxiety over potential crypto losses never seems go away</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -6311,14 +6311,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>im angry scammers prey new crypto investors</t>
+          <t>watching crypto investments fail utterly depressing</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -6326,14 +6326,14 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>im scared government banning crypto</t>
+          <t>watching crypto investments fail heartbreaking</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -6341,14 +6341,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>im angry i missed last bull run</t>
+          <t>good day be careful needs sold soon the highlighted zones chart sell zone</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -6356,14 +6356,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>im scared crypto winter</t>
+          <t>the constant fud making market unbearable</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -6378,7 +6378,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>im sad i lost money last bear market</t>
+          <t>every crypto plummet leaves furious</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -6386,14 +6386,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>im angry gas fees ethereum</t>
+          <t>feeling utterly sad state crypto investments</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -6401,14 +6401,14 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>im scared getting hacked</t>
+          <t>im sad i missed last bull run</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -6416,14 +6416,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>im sad i missed solana airdrop</t>
+          <t>this crypto market rollercoaster emotions mostly anger</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -6431,14 +6431,14 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>im angry government taxing crypto gains</t>
+          <t>im angry high fees centralized exchanges cexs</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -6453,7 +6453,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>im scared crypto bubble bursting</t>
+          <t>every time i check portfolio heart sinks this agony</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -6461,14 +6461,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>im sad i sold bitcoin bottom</t>
+          <t>fear greed index greed</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -6476,14 +6476,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>im angry whales manipulate market</t>
+          <t>crypto definitely cares less macro year</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -6491,14 +6491,14 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>im scared government banning crypto mining</t>
+          <t>hacked all gone instant cant express broken i feel</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -6506,14 +6506,14 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>my portfolio much</t>
+          <t>just in largest defi protocol solana reportedly quits uk market citing fca rule</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -6528,7 +6528,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>solana</t>
+          <t>angry getting caught crypto hype</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -6543,7 +6543,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>bitcoin crashing</t>
+          <t>for stupid world nfts gm solve scams rug shove fucking gm ass damn scammers</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -6551,14 +6551,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>i lost money bear market</t>
+          <t>this last time i trust crypto hype totally misled</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -6566,14 +6566,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>im angry government regulating crypto</t>
+          <t>every crypto crash fuels frustration its much</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -6588,7 +6588,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>im scared losing money crypto market</t>
+          <t>is bull market</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -6603,7 +6603,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>i made bad trade lost lot money</t>
+          <t>what exit pump anything happen wait confirmations invest</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>im sad i missed last bull run</t>
+          <t>just reminder scam stay humble stay</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -6626,14 +6626,14 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>im angry scammers prey new crypto investors</t>
+          <t>im sad i missed early days ethereum</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -6641,14 +6641,14 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>im scared government crackdown cryptocurrency</t>
+          <t>the crypto markets cruelty beyond frustrating</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -6656,14 +6656,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>im sad i lost money last bear market</t>
+          <t>the promises seem like cruel joke feeling utterly deceived</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -6671,14 +6671,14 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>im angry high gas fees ethereum</t>
+          <t>wish i never got crypto the stress much</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -6686,14 +6686,14 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>im scared quantum computing attack cryptocurrency</t>
+          <t>the manipulation market blatantly obvious its infuriating</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -6701,14 +6701,14 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>im sad i lost money ftx hack</t>
+          <t>the fear crypts instability haunts day night</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -6716,14 +6716,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>im sad i sold ethereum early</t>
+          <t>regretting crypto choices right this nightmare</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -6738,7 +6738,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>im angry government not protect crypto investors scams</t>
+          <t>be cautious unofficial apps websites related cryptocurrency use verified guaranteed safe apps websites ensure not fall victim fraudulent activities lose money</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -6746,14 +6746,14 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>im scared crypto winter</t>
+          <t>every crypto crash sends wave fear heart</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -6768,7 +6768,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>im sad i lost money last bear market</t>
+          <t>uni only valid long scalp after breaking of trendline and flip grey resistance to support and hold that box then next target in green zones above no flip of box and hold no trendline break means no entry</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -6776,14 +6776,14 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>im angry scammers prey new crypto investors</t>
+          <t>the fear losing money crypto keeps night</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -6791,14 +6791,14 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>im scared losing money crypto market</t>
+          <t>im sad i didnt invest bitcoin sooner</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -6806,14 +6806,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>i made bad trade lost lot money</t>
+          <t>oh my god look many trapped people theyve fooled loss</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -6821,14 +6821,14 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>im sad i missed early days bitcoin</t>
+          <t>bad news market the ticker blackrocks spot etf ibtc removed dtcc website</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -6843,7 +6843,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>im angry high transaction fees ethereum</t>
+          <t>my trust crypto market completely shattered</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6851,14 +6851,14 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>im scared government crackdown cryptocurrency</t>
+          <t>crypto nothing but stressful journey</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6866,14 +6866,14 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>i made bad investment lost lot money</t>
+          <t>im angry scammers prey new crypto investors</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6881,14 +6881,14 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>im sad i sold bitcoin early</t>
+          <t>cryptocurrency lending firm blockfi declared bankruptcy prepared reimburse debtors</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6903,7 +6903,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>im angry big banks trying stop cryptocurrency adoption x</t>
+          <t>scammed fake ico be careful</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6918,7 +6918,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>im scared crypto winter</t>
+          <t>hits going eth</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6933,7 +6933,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>i lost money ftx hack</t>
+          <t>fear grips every time i hear another crypto crash</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6941,14 +6941,14 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>im sad i didnt invest bitcoin sooner</t>
+          <t>im sad i lost money last bear market</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6963,7 +6963,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>im angry scammers prey new crypto investors</t>
+          <t>invested crypto im paying price complete disaster</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6971,14 +6971,14 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>im scared quantum computing attack bitcoin network</t>
+          <t>why even bother manipulated whales</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6986,14 +6986,14 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>im sad i missed early days ethereum</t>
+          <t>feeling helpless i watch crypto investment plummet</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -7008,7 +7008,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>im angry high gas fees solana</t>
+          <t>the total cryptocurrency market capitalization decreased third quarter year compared previous quarter</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -7016,14 +7016,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>im scared government crackdown crypto industry</t>
+          <t>hold tight over million vanished minutes reminding us leverage no joke crypto market read shocking losses link</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -7038,7 +7038,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>im sad i sold bitcoin early</t>
+          <t>cant believe i fell crypto hype pure anger</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -7046,14 +7046,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>im angry scammers prey new crypto investors</t>
+          <t>the market crash left fear losing everything</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -7061,14 +7061,14 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>im scared recession impact crypto market</t>
+          <t>crypto losses left feeling utterly hopeless</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -7076,14 +7076,14 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>i made bad trade lost lot money</t>
+          <t>the constant fear crypto market collapse paralyzing</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -7091,14 +7091,14 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>im angry high fees centralized exchanges cexs</t>
+          <t>crypto markets unpredictability left angry disillusioned</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -7113,7 +7113,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>im scared government ban crypto mining</t>
+          <t>crypto financial black hole completely disheartened</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -7121,14 +7121,14 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>i lost money ftx hack</t>
+          <t>im angry big banks trying stop cryptocurrency adoption x</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>im sad i missed recent bull run</t>
+          <t>completely agree manipulation</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -7158,7 +7158,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>im angry scammers prey new crypto investors</t>
+          <t>cryptos volatility keeps us toes</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -7166,14 +7166,14 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>im sad i missed early days ethereum</t>
+          <t>lost half investment week how even legal</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -7181,14 +7181,14 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>the libs employed people lining food banks defaulting mortgages unable current homes childrens children still paying liberal debt pierre discussed crypto bought shawarma bitcoin marks gotcha</t>
+          <t>feeling completely defeated crypto market</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -7196,14 +7196,14 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>bitcoincrypto also manipulated marketthe banks people top itthis perfect plan set imagine different coins used food petrol banking health care etc all control wefthey know communism</t>
+          <t>this crypto volatility beyond frustrating im patience</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -7211,14 +7211,14 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>not sure wallet secured due reports hacks keep crypto secured worlds first noncustodial wallet no seed phrase vulnerability supporting</t>
+          <t>i miss days i heard simpler happier times</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -7226,14 +7226,14 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>dont think could trust old money ever itll probably end billionaire crypto bro takes position future</t>
+          <t>the chaos crypto market infuriating cant catch break</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -7241,14 +7241,14 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>crypto definitely cares less macro year</t>
+          <t>hits going etc</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -7256,14 +7256,14 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>crypto over years old isnt new upstart thing nft fad already came went everyone knew bad idea except speculators lying grifters</t>
+          <t>im sad i missed early days ethereum</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -7278,7 +7278,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>every time i think rally plunges feeling hopeless</t>
+          <t>cant believe i fell another scam playground fraudster</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -7286,14 +7286,14 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>just lost half investment week volatile liking</t>
+          <t>its time i buying back bpgo as i said many times buy bpgo goes it cost</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -7301,14 +7301,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>why even bother manipulated whales</t>
+          <t>just lost half investment flash crash the volatility market insane</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -7316,14 +7316,14 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>hacked cant trust exchange days</t>
+          <t>the instability crypto markets source endless fear</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -7331,14 +7331,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>back fiat unstable scary</t>
+          <t>cryptos crash left state deep sadness</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -7346,14 +7346,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>regret investing its nothing but digital mirage</t>
+          <t>attention crypto enthusiasts stay one step ahead scammers bbbs tracker discover reported crypto scams area anywhere north america protect investments knowledge power</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -7361,14 +7361,14 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>this bear market killing not fainthearted</t>
+          <t>dread fills every time i check crypto investments</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -7376,14 +7376,14 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>im done too many scams little regulations</t>
+          <t>im angry scammers prey new crypto investors</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -7398,7 +7398,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>just lost half investment flash crash the volatility market insane</t>
+          <t>will set you up for life</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -7406,14 +7406,14 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>feeling deceived hype my portfolio bleeding</t>
+          <t>the libs employed people lining food banks defaulting mortgages unable current homes childrens children still paying liberal debt pierre discussed crypto bought shawarma bitcoin marks gotcha</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -7428,7 +7428,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>regretting decision invest crypto the market seems unstable</t>
+          <t>whats going binance experiencing problems crypto withdrawals temporarily unavailable</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -7436,14 +7436,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>hackers drained wallet cant believe happening</t>
+          <t>just lost half investment week volatile liking</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -7451,14 +7451,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>this market correction brutal watching gains disappear</t>
+          <t>watching crypto dreams shatter saddest thing</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -7473,7 +7473,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>scammed fake ico be careful</t>
+          <t>im angry high gas fees solana</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -7488,7 +7488,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>frustrated lack regulation crypto too many scams</t>
+          <t>what fuck snek no seriously wtf wrong</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -7503,7 +7503,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>the constant fud making market unbearable</t>
+          <t>regret getting its nothing but rollercoaster dread</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -7518,7 +7518,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>feeling helpless i watch crypto investment plummet</t>
+          <t>im sad i sold bitcoin early</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -7533,7 +7533,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>wish i never got crypto the stress much</t>
+          <t>the volatility making anxious not sure much i take</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -7548,7 +7548,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>angry buying peak the market unpredictable</t>
+          <t>why i ever believe its nightmare since day one</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -7563,7 +7563,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>crypto winter feels colder ever portfolios</t>
+          <t>angry buying peak the market unpredictable</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -7571,14 +7571,14 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>cant believe i fell phishing scam crypto wild west</t>
+          <t>our ai mood swing predicts price heading its probably jealous cant</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -7586,14 +7586,14 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>the market crash left fear losing everything</t>
+          <t>anger doesnt even describe i feel crypto slump</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -7601,14 +7601,14 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>regret investing crypto without proper research feeling burnt</t>
+          <t>jonathan farnell former head binance uk left company uks fca imposes stricter rules crypto advertising what think means binances future crypto industry whole</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -7623,7 +7623,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>the constant market manipulation crypto infuriating</t>
+          <t>cryptos volatility nightmare its like walking thin ice</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -7631,14 +7631,14 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>seeing life savings dwindle bear market</t>
+          <t>ever wonder happened bambi mom tragically murdered here little sneak peek bam life buy bam</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -7646,14 +7646,14 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>terrified governments new regulations affect crypto</t>
+          <t>bitcoincrypto also manipulated marketthe banks people top itthis perfect plan set imagine different coins used food petrol banking health care etc all control wefthey know communism</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -7661,14 +7661,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>just watched entire savings vanish flash crash feeling devastated hopeless</t>
+          <t>red candle possible tomorrow per pressure date price action support intraday stoploss must trading</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -7676,14 +7676,14 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>cant believe i fell another scam playground fraudster</t>
+          <t>new crypto exchange binance temporarily halts crypto withdrawals due technical problems the cryptocurrency market records billion trading volume binance assures users funds secure</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -7691,14 +7691,14 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>the market unpredictable causing sleepless nights stressful</t>
+          <t>scary new crypto tax rules everyone aware worried rt</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -7713,7 +7713,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>lost half investment week how even legal</t>
+          <t>dont think could trust old money ever itll probably end billionaire crypto bro takes position future</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -7721,14 +7721,14 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>hacked all gone instant cant express broken i feel</t>
+          <t>my crypto journey nothing but path sadness</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -7743,7 +7743,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>regret getting its nothing but rollercoaster dread</t>
+          <t>i made bad trade lost lot money</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -7751,14 +7751,14 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>the volatility making anxious not sure much i take</t>
+          <t>feeling profound sense loss crypto investments</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -7766,14 +7766,14 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>i miss days i heard simpler happier times</t>
+          <t>warn bernie madoff case inevitable</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -7781,14 +7781,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>another day another dip losing faith rapidly</t>
+          <t>the market unpredictable causing sleepless nights stressful</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -7796,14 +7796,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>the manipulation market blatantly obvious its infuriating</t>
+          <t>did know solving rubiks cube easier understanding concepts but dont worry well break itemized pieces</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -7811,14 +7811,14 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>feels like im throwing money black hole</t>
+          <t>my crypto portfolios downfall left deeply disillusioned</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -7833,7 +7833,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>the promises seem like cruel joke feeling utterly deceived</t>
+          <t>the libs employed people lining food banks defaulting mortgages unable current homes childrens children still paying liberal debt pierre discussed crypto bought shawarma bitcoin marks gotcha</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -7848,7 +7848,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>every time i check portfolio heart sinks this agony</t>
+          <t>seeing life savings dwindle bear market</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -7863,7 +7863,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>why i ever believe its nightmare since day one</t>
+          <t>my crypto investments ruins feeling low</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -7871,14 +7871,14 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ive lost trust things too many lies much loss</t>
+          <t>dont tell not buying hbar your biggest mistake bull run friend</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -7886,14 +7886,14 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>this market crash harsh reminder risks feeling helpless</t>
+          <t>ready take let battle begin latest news gary cryptocurrency area filled fraud scams bankruptcy money laundering</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -7901,14 +7901,14 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>just lost half investment crypto crash feeling devastated</t>
+          <t>watching portfolio vanish eyes worst feeling</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -7916,14 +7916,14 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>cant believe market tanking why i even invest</t>
+          <t>so disheartened continuous crypto market dips</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -7931,14 +7931,14 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>watching portfolio vanish eyes worst feeling</t>
+          <t>im disappointed crypto investments turned</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -7946,14 +7946,14 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>regretting crypto choices right this nightmare</t>
+          <t>im scared quantum computing attack bitcoin network</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -7961,14 +7961,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>this crypto volatility driving crazy cant stand uncertainty</t>
+          <t>just watched entire savings vanish flash crash feeling devastated hopeless</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -7976,14 +7976,14 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>im scared checking crypto portfolio its going downhill</t>
+          <t>sick tired crypto markets games its losses</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -7991,14 +7991,14 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>every crypto investment i made backfired feeling hopeless</t>
+          <t>the crypto markets volatility constant source anxiety</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -8006,14 +8006,14 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>the crypto market unpredictable infuriating</t>
+          <t>another day another dip losing faith rapidly</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -8021,14 +8021,14 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>fear grips every time i hear another crypto crash</t>
+          <t>im scared government crackdown crypto industry</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -8043,7 +8043,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>im disappointed crypto investments turned</t>
+          <t>ok listen dense mofo how many fucking deadline see fucking schedule final deadline january march how fuck think going approve anything million got rest minutes</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -8051,14 +8051,14 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>anger doesnt even describe i feel crypto slump</t>
+          <t>frustrated lack regulation crypto too many scams</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -8073,7 +8073,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>the fear losing everything crypto real terrifying</t>
+          <t>the crypto market unpredictable infuriating</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -8081,14 +8081,14 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>feeling utterly sad state crypto investments</t>
+          <t>im angry scammers prey new crypto investors</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -8096,14 +8096,14 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>this crypto market rollercoaster emotions mostly anger</t>
+          <t>im scared checking crypto portfolio its going downhill</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -8111,14 +8111,14 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>the uncertainty crypto scaring day</t>
+          <t>the constant market manipulation crypto infuriating</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -8126,14 +8126,14 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>invested crypto im paying price complete disaster</t>
+          <t>cryptos endless rollercoaster driving insane so much anger</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -8141,14 +8141,14 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>this last time i trust crypto hype totally misled</t>
+          <t>israeli authorities ordered dozens cryptocurrency accounts closed seized millions dollars worth coins step longstanding efforts cut links crypto markets attack country</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -8156,14 +8156,14 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>the fear losing money crypto keeps night</t>
+          <t>this sad breached inside job</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -8171,14 +8171,14 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>crypto nothing but stressful journey</t>
+          <t>the fear crypto market crashing always looming</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -8186,14 +8186,14 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>every crypto dip feels like punch guts had enough</t>
+          <t>feels like every crypto investment i make turns dust so disheartened</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -8201,14 +8201,14 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>seeing crypto investments crash like watching horror movie</t>
+          <t>cryptos unpredictability nothing but source constant anger</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -8216,14 +8216,14 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>im sad see hardened money vanish crypto</t>
+          <t>this endless crypto downturn making lose patience</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -8231,14 +8231,14 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>why crypto market cruel feeling cheated</t>
+          <t>crypto markets volatility makes angry helpless</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -8253,7 +8253,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>the crypto markets unpredictability scaring off investors</t>
+          <t>the i see crypto investments fall i fear worst</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -8268,7 +8268,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>heartbroken over recent crypto crash its tough pill swallow</t>
+          <t>every crypto investment i made backfired feeling hopeless</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -8283,7 +8283,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>all crypto chaos driving edge</t>
+          <t>hackers drained wallet cant believe happening</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -8291,14 +8291,14 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>the i see crypto investments fall i fear worst</t>
+          <t>this market correction brutal watching gains disappear</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -8306,14 +8306,14 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>feeling deep sense loss crypto portfolio</t>
+          <t>all crypto chaos driving edge</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -8321,14 +8321,14 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>crypto markets volatility makes angry helpless</t>
+          <t>nailing whole think time cautious acts wolf pattern ob lower high divergence could wrong</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -8336,14 +8336,14 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>the fear crypto market crashing always looming</t>
+          <t>constant fear another crypto plummet keeping edge</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -8358,7 +8358,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>regrets piling every crypto market drop</t>
+          <t>the fear losing everything crypto real terrifying</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -8366,14 +8366,14 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>cryptos unpredictability nothing but source constant anger</t>
+          <t>regrets piling every crypto market drop</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -8381,14 +8381,14 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>the dread another crypto crash always</t>
+          <t>free since signal moonboys advice people buy etc dip gets thousands interactions i nailed lot moves lately no one cares</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -8396,14 +8396,14 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>my trust crypto market completely shattered</t>
+          <t>did position correctly ants die arthur aardvark ardvrk</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -8418,7 +8418,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>every crypto downturn feels like personal attack so frustrated</t>
+          <t>i lost money ftx hack</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -8426,14 +8426,14 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>crypto investing become nightmare i cant wake</t>
+          <t>ive lost trust things too many lies much loss</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -8448,7 +8448,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>watching crypto savings disappear heartwrenching</t>
+          <t>this crypto volatility driving crazy cant stand uncertainty</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -8456,14 +8456,14 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>im wits end crypto losses enough enough</t>
+          <t>angry frustrated crypto markets empty promises</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -8478,7 +8478,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>the constant fear crypto volatility exhausting</t>
+          <t>finished collected people still greedy nobody thats soo sadly started soo continuously monitor peoples greedy side</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -8486,14 +8486,14 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>feeling completely defeated crypto market</t>
+          <t>feeling deceived hype my portfolio bleeding</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -8501,14 +8501,14 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>crypto done nothing but fuel anger frustration</t>
+          <t>this market crash harsh reminder risks feeling helpless</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -8516,14 +8516,14 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>the looming threat crypto crash keeps edge</t>
+          <t>regretting decision invest crypto the market seems unstable</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -8531,14 +8531,14 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>crypto losses left feeling utterly hopeless</t>
+          <t>why crypto market cruel feeling cheated</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -8546,14 +8546,14 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>angry getting caught crypto hype</t>
+          <t>every crypto dip feels like punch guts had enough</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -8568,7 +8568,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>the fear never recovering crypto investment real</t>
+          <t>im sad see hardened money vanish crypto</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -8576,14 +8576,14 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>hits going eth</t>
+          <t>back fiat unstable scary</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -8598,7 +8598,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>hits going etc</t>
+          <t>regret investing its nothing but digital mirage</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -8606,14 +8606,14 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>our ai mood swing predicts price heading its probably jealous cant</t>
+          <t>seeing crypto investments crash like watching horror movie</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -8621,14 +8621,14 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>for stupid world nfts gm solve scams rug shove fucking gm ass damn scammers</t>
+          <t>the crypto markets unpredictability scaring off investors</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -8636,14 +8636,14 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>what fuck snek no seriously wtf wrong</t>
+          <t>this bear market killing not fainthearted</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -8651,14 +8651,14 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ok listen dense mofo how many fucking deadline see fucking schedule final deadline january march how fuck think going approve anything million got rest minutes</t>
+          <t>heartbroken over recent crypto crash its tough pill swallow</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -8666,14 +8666,14 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>finished collected people still greedy nobody thats soo sadly started soo continuously monitor peoples greedy side</t>
+          <t>halloween right around corner dont get tricked fangs cefi enjoy treat financial freedom</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -8681,14 +8681,14 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>completely agree manipulation</t>
+          <t>people keep describing experience sitting courtroom surreal frankly surreal thing courtroom he may hate but im massive oc fan im frankly conflicted</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -8703,7 +8703,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>our founder eglantyne jebb said every war against children as continue mission support speak all children convert impact donate others</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -8711,14 +8711,14 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>missed dont miss opportunity bitcoin exchanger bybit</t>
+          <t>im angry government regulating crypto</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -8726,14 +8726,14 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>oh my god look many trapped people theyve fooled loss</t>
+          <t>im scared losing money crypto market</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -8748,7 +8748,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>why hack every pump dump happens asleep</t>
+          <t>im angry scammers prey new crypto investors</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -8763,7 +8763,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>this sad breached inside job</t>
+          <t>im scared crypto winter</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -8771,14 +8771,14 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>feels like every crypto investment i make turns dust so disheartened</t>
+          <t>im sad i lost money last bear market</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -8793,7 +8793,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>this endless crypto downturn making lose patience</t>
+          <t>im sad i missed solana airdrop</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -8801,14 +8801,14 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>the constant fear crypto market collapse paralyzing</t>
+          <t>im angry government taxing crypto gains</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -8816,14 +8816,14 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>my crypto portfolios downfall left deeply disillusioned</t>
+          <t>im scared crypto bubble bursting</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -8831,14 +8831,14 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>sick tired crypto markets games its losses</t>
+          <t>im sad i sold bitcoin bottom</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -8846,14 +8846,14 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>cryptos volatility nightmare its like walking thin ice</t>
+          <t>im angry whales manipulate market</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>watching crypto dreams shatter saddest thing</t>
+          <t>my portfolio much</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -8883,7 +8883,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>the crypto markets cruelty beyond frustrating</t>
+          <t>im scared losing money crypto market</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -8891,14 +8891,14 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>every crypto crash sends wave fear heart</t>
+          <t>i made bad trade lost lot money</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -8906,14 +8906,14 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>feeling utterly despondent over crypto losses</t>
+          <t>im angry high gas fees ethereum</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -8921,14 +8921,14 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>the chaos crypto market infuriating cant catch break</t>
+          <t>im sad i lost money ftx hack</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -8936,14 +8936,14 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>fear losing crypto keeps night</t>
+          <t>im sad i sold ethereum early</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -8951,14 +8951,14 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>my crypto investments ruins feeling low</t>
+          <t>im sad i lost money last bear market</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -8973,7 +8973,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>anger doesnt even begin cover i feel crypto crash</t>
+          <t>im angry scammers prey new crypto investors</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -8988,7 +8988,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>the unpredictability crypto terrifying never know whats next</t>
+          <t>im scared losing money crypto market</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -9003,7 +9003,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>crypto financial black hole completely disheartened</t>
+          <t>i made bad trade lost lot money</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -9018,7 +9018,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>the endless crypto market crash infuriating when end</t>
+          <t>im scared government crackdown cryptocurrency</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -9026,14 +9026,14 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>constant fear another crypto plummet keeping edge</t>
+          <t>i made bad investment lost lot money</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -9041,14 +9041,14 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>feel completely betrayed crypto markets promises</t>
+          <t>so couple ok weeks but nothing not even started yet chain t ndas this way go etfs bull</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -9063,7 +9063,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>cryptos endless rollercoaster driving insane so much anger</t>
+          <t>from skyhigh surges staggering losses unpacking markets day journey</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -9071,14 +9071,14 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>dread fills every time i check crypto investments</t>
+          <t>the ceo binance experienced billion loss result declining trading volumes former competitor sbfs net worth remains zero check details</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -9086,14 +9086,14 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>my crypto journey nothing but path sadness</t>
+          <t>i know nothing but technical analysis says problem</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -9101,14 +9101,14 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>every crypto crash fuels frustration its much</t>
+          <t>why hard talk you cant even say straight faced so see theres guy named paulyx but thats not really name anyways liked pumpkin pie teenager likes cf i want franchise one st thomas crypto bestie pineapple we think sent money pauly we team get pissed people call scammers yes heroin messed shit but hes sober so really likes pepe frog i randomly found space spaces bunch people dont know one another talk like totally legit way find someone send money he told us wed get nothing we believed but hunch bigger it we minded new dex ill table tell bit weve swapping nonstop rewards we dont know means yet but bet pepe dont worry thought hes working elon take entire financial system ill making liquid yum life kraken released at least thats speculate faces melted</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -9116,14 +9116,14 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>the fear crypts instability haunts day night</t>
+          <t>bitcoin crashing</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -9138,7 +9138,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>so disheartened continuous crypto market dips</t>
+          <t>i lost money bear market</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -9153,7 +9153,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>crypto markets unpredictability left angry disillusioned</t>
+          <t>i made bad trade lost lot money</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -9161,14 +9161,14 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>the crypto markets volatility constant source anxiety</t>
+          <t>im scared government banning crypto</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -9183,7 +9183,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>watching crypto investments fail utterly depressing</t>
+          <t>im angry i missed last bull run</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -9191,14 +9191,14 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>im furious volatile unreliable crypto proven</t>
+          <t>im angry gas fees ethereum</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -9213,7 +9213,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>the anxiety over potential crypto losses never seems go away</t>
+          <t>im scared getting hacked</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -9228,7 +9228,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>every crypto dip chips away sanity utterly disappointed</t>
+          <t>im scared government banning crypto mining</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -9236,14 +9236,14 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>breaking point relentless crypto crashes</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -9258,7 +9258,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>the overlooking crypto crash threat keeps constant fear</t>
+          <t>bitcoin crashing</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -9273,7 +9273,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>crypto nothing but series letdown feeling defeated</t>
+          <t>i lost money bear market</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -9288,7 +9288,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>this crypto volatility beyond frustrating im patience</t>
+          <t>im angry government regulating crypto</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -9303,7 +9303,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>cryptos unpredictability neverending source anxiety</t>
+          <t>im scared quantum computing attack cryptocurrency</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -9318,7 +9318,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>feeling profound sense loss crypto investments</t>
+          <t>im angry government not protect crypto investors scams</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -9326,14 +9326,14 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>cant believe i fell crypto hype pure anger</t>
+          <t>im scared crypto winter</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -9341,14 +9341,14 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>the fear crypts next move keeps awake night</t>
+          <t>im sad i missed early days bitcoin</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -9356,14 +9356,14 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>watching crypto investments fail heartbreaking</t>
+          <t>im angry high transaction fees ethereum</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -9371,14 +9371,14 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>angry frustrated crypto markets empty promises</t>
+          <t>im sad i sold bitcoin early</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -9386,14 +9386,14 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>the constant dread losing crypto unbearable</t>
+          <t>dont invest afford lose extremely volatile its true pump but also go zero if worried losing money invested probably invested much</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -9408,7 +9408,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>cryptos crash left state deep sadness</t>
+          <t>sbf trial week concludes sbf telling jury blindsided b shortfall</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -9423,7 +9423,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>every crypto plummet leaves furious</t>
+          <t>my portfolio much</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -9431,14 +9431,14 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>sad</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>the instability crypto markets source endless fear</t>
+          <t>im wits end crypto losses enough enough</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>angry</t>
         </is>
       </c>
     </row>
